--- a/Isobahn_for_Sensor2.xlsx
+++ b/Isobahn_for_Sensor2.xlsx
@@ -5,27 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenwei/Desktop/PA 表格处理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenwei/Desktop/PA_Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717533EA-872A-3047-82DB-F8FBFB014B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5FD4D2-284E-034C-9FCF-4F3BB4C953DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorstellung" sheetId="5" r:id="rId1"/>
     <sheet name="Haupt" sheetId="1" r:id="rId2"/>
     <sheet name="Ohne" sheetId="2" r:id="rId3"/>
     <sheet name="Mit" sheetId="3" r:id="rId4"/>
+    <sheet name="zusammen" sheetId="6" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Haupt!$AF$4:$AF$27</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Haupt!$AG$4:$AG$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Haupt!$H$4:$H$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Haupt!$I$4:$I$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Haupt!$Q$4:$Q$27</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Haupt!$R$4:$R$27</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="58">
   <si>
     <t>P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,19 +195,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>winkelabweichung ignorieren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Real - G1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Real G3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korrektur Mit Winkelabweichung .G3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,6 +209,46 @@
   <si>
     <t>P1</t>
   </si>
+  <si>
+    <t>G1 Umsetzen Ohne Winkelkorrigieren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abweichung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3 Umsetzen Ohne Winkelkorrigieren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perzent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perzent%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1 Umsetzen mit Winkelkorrigieren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3 Umsetzen mit Winkelkorrigieren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ohne Winkelkorrigieren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mit Winkelkorrigieren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +290,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +331,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -306,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +377,18 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,14 +398,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,76 +1101,76 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-7.1781666666668116</c:v>
+                  <c:v>0.60815943833966912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3333333333333333</c:v>
+                  <c:v>0.11296467312259773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12.883666666666727</c:v>
+                  <c:v>1.091549395215381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-25.767333333333454</c:v>
+                  <c:v>2.1830987904307619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-26.651000000000295</c:v>
+                  <c:v>2.2579661275427725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-27.31766666666681</c:v>
+                  <c:v>2.3144484641040606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-27.868000000000393</c:v>
+                  <c:v>2.3610746329354129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-28.868000000000393</c:v>
+                  <c:v>2.4457981377773876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-29.434000000000196</c:v>
+                  <c:v>2.4937516415179175</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-29.100666666666939</c:v>
+                  <c:v>2.4655104732372592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-29.612333333333254</c:v>
+                  <c:v>2.5088606665480455</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-28.612333333333254</c:v>
+                  <c:v>2.4241371617060992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-27.550333333333469</c:v>
+                  <c:v>2.3341607995639606</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-28.217000000000098</c:v>
+                  <c:v>2.3906431361252629</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-27.488333333333344</c:v>
+                  <c:v>2.3289079422637613</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-27.154999999999973</c:v>
+                  <c:v>2.3006667739831101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-25.759666666666703</c:v>
+                  <c:v>2.1824492435603098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-25.426333333333332</c:v>
+                  <c:v>2.1542080752796586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-25</c:v>
+                  <c:v>2.1180876210487076</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-25</c:v>
+                  <c:v>2.1180876210487076</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-27.899166666666702</c:v>
+                  <c:v>2.3637151821696563</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-25.240333333333297</c:v>
+                  <c:v>2.13844950337905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-27.333333333333332</c:v>
+                  <c:v>2.3157757990132533</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-27.666666666666668</c:v>
+                  <c:v>2.3440169672939031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1454,76 +1536,76 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-10.252496839291325</c:v>
+                  <c:v>-0.8569720869841575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9914790105979211</c:v>
+                  <c:v>8.2856756874909801E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.83486313139849244</c:v>
+                  <c:v>-6.9845596576982416E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.6043929294637049</c:v>
+                  <c:v>-0.46850624443731059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.9965671562435148</c:v>
+                  <c:v>-0.83563290911017685</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.0334943176112574</c:v>
+                  <c:v>-0.67158136430968796</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-11.423538297040523</c:v>
+                  <c:v>-0.95496132000468492</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-18.355262372425386</c:v>
+                  <c:v>-1.5342365235150766</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-12.252492316986263</c:v>
+                  <c:v>-1.0240790432661981</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13.250362069635685</c:v>
+                  <c:v>-1.10746977140289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-12.025160374756751</c:v>
+                  <c:v>-1.0050252039019512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-12.009436299371828</c:v>
+                  <c:v>-1.0037112579336167</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-11.511260681488238</c:v>
+                  <c:v>-0.96205706733501017</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-10.858187842855841</c:v>
+                  <c:v>-0.90748054384455656</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-10.695475805656088</c:v>
+                  <c:v>-0.89386058318559947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-11.017345558305578</c:v>
+                  <c:v>-0.92075885757758158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10.183706359738153</c:v>
+                  <c:v>-0.85107043703928298</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-9.1909094457209903</c:v>
+                  <c:v>-0.76810370276795936</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9.1177685512891458</c:v>
+                  <c:v>-0.76195786238027097</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.5402685512890457</c:v>
+                  <c:v>-0.63012820885617771</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.2441704811299132</c:v>
+                  <c:v>-0.68903609112379627</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.24588815155817656</c:v>
+                  <c:v>-2.0512573374123377E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.4188469494092999</c:v>
+                  <c:v>-3.4999909936109574E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.48985613657352883</c:v>
+                  <c:v>4.0939274129213096E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1678,6 +1760,1839 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ohne_G1_x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>zusammen!$A$4:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zusammen!$B$4:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.60815943833966912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11296467312259773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.091549395215381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1830987904307619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2579661275427725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3144484641040606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3610746329354129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4457981377773876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4937516415179175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4655104732372592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5088606665480455</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4241371617060992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3341607995639606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3906431361252629</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3289079422637613</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3006667739831101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1824492435603098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1542080752796586</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1180876210487076</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1180876210487076</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3637151821696563</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.13844950337905</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3157757990132533</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3440169672939031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-F6B3-0846-B633-E9B8A8E5705A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ohne_G1_y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>zusammen!$A$4:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zusammen!$C$4:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-1.8930543252383139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3568718557269633E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.50414222281648335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3370994969163141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.1449304429699207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9805229173282584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7047851448245837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2835263770732013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.8907144011187142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.974283119675988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5564395268896334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.5556595521830872</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.3885221150685538</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3335896107369081</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.1943084131414565</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.2213846779540205</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0263910013203912</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.94360225746964943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.74860858083602011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.61677892731192685</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.1468274528811691</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1820405252572499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.0404695447732379E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5712479038179753E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-F6B3-0846-B633-E9B8A8E5705A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ohne_G3_x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>zusammen!$A$4:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zusammen!$E$4:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7.1577241007304296E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.8561677299500161E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3252337662704576E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25284317961668989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3396169932768771E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27122818016738393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27122818016738393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14973467422399267</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3252337662704576E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1879026131544492E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0120194412216961E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6626168831352288E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6626168831352288E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3132143250501827E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5109025030149326E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0361882330345082E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.0361882330345082E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.6482336561298863E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.4723504841948294E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.3266458246844763E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.12084395907290002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8241168280649431E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-F6B3-0846-B633-E9B8A8E5705A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Ohne_G3_y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>zusammen!$A$4:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zusammen!$F$4:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-2.533747834177376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.72699213896920867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3649557364354039</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.9499367663362914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7019605221373553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.3705102705955028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.8656827842868466</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7792894430423445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8350019220805365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.4171583292941818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.3885221150685538</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2213846779540205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1107396945841828</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.97145849698874542</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.9985347618013094</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.83139732468676186</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.74860858083602011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.553614904202405</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.5053539692355713</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.86826505769028017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.54417163900541965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34172641830043382</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36213111374816842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-F6B3-0846-B633-E9B8A8E5705A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Mit_G1_x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>zusammen!$A$4:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zusammen!$H$4:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.60815943833966912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11296467312259773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.091549395215381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1830987904307619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2579661275427725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3144484641040606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3610746329354129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4457981377773876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4937516415179175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4655104732372592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5088606665480455</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4241371617060992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3341607995639606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3906431361252629</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3289079422637613</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3006667739831101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1824492435603098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1542080752796586</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1180876210487076</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1180876210487076</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3637151821696563</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.13844950337905</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3157757990132533</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3440169672939031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-F6B3-0846-B633-E9B8A8E5705A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Mit_G1_y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>zusammen!$A$4:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zusammen!$I$4:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.8569720869841575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2856756874909801E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.9845596576982416E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.46850624443731059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.83563290911017685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.67158136430968796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.95496132000468492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5342365235150766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0240790432661981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.10746977140289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0050252039019512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.0037112579336167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.96205706733501017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.90748054384455656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.89386058318559947</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.92075885757758158</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.85107043703928298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.76810370276795936</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.76195786238027097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.63012820885617771</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.68903609112379627</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.0512573374123377E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.4999909936109574E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0939274129213096E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-F6B3-0846-B633-E9B8A8E5705A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Mit_G3_x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>zusammen!$A$4:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zusammen!$K$4:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7.1577241007304337E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.8561677299500161E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3252337662704576E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25284317961668989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3396169932768771E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27122818016738393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27122818016738393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14973467422399267</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3252337662704576E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1879026131544492E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0120194412216961E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6626168831352288E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6626168831352288E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3132143250501827E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5109025030149326E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0361882330345082E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.0361882330345082E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.6482336561298863E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.4723504841948294E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.3266458246844763E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.12084395907290002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8241168280649431E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-F6B3-0846-B633-E9B8A8E5705A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Mit_G3_y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>zusammen!$A$4:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>P29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>P30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>P31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>P34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>P35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>P36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zusammen!$L$4:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-1.1003802851361115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2569908036500976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.48986812377046496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.63667989652968715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3514825714914735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5831982990567042</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1257312759419591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33336816686998816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27724673023681135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38164826801435936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68686781183725998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72873669692670262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56454254454301633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57817026135182914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82726836854152452</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86895680366691863</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6765214830025883</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68275224909345411</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55913047760722634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39411156901092426</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70623525137404641</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.51935902734345163</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36713518764844261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-F6B3-0846-B633-E9B8A8E5705A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1087156191"/>
+        <c:axId val="708357536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1087156191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708357536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="708357536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087156191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2797,76 +4712,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-1947.5115000000001</c:v>
+                  <c:v>164.39184056166033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.11296467312259773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-826.2170000000001</c:v>
+                  <c:v>68.908450604784619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1652.4340000000002</c:v>
+                  <c:v>137.81690120956924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2478.6510000000003</c:v>
+                  <c:v>207.74203387245723</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2478.6510000000003</c:v>
+                  <c:v>207.68555153589594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3304.8680000000004</c:v>
+                  <c:v>277.63892536706459</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3304.8680000000004</c:v>
+                  <c:v>277.55420186222261</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1652.4340000000002</c:v>
+                  <c:v>137.50624835848208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1652.4340000000002</c:v>
+                  <c:v>137.53448952676274</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1062.279</c:v>
+                  <c:v>87.491139333451954</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1062.279</c:v>
+                  <c:v>87.575862838293901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-826.2170000000001</c:v>
+                  <c:v>67.665839200436039</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-826.2170000000001</c:v>
+                  <c:v>67.609356863874737</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-590.15499999999997</c:v>
+                  <c:v>47.671092057736239</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-590.15499999999997</c:v>
+                  <c:v>47.69933322601689</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-354.09300000000002</c:v>
+                  <c:v>27.81755075643969</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-354.09300000000002</c:v>
+                  <c:v>27.845791924720341</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-2.1180876210487076</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-2.1180876210487076</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-885.23250000000007</c:v>
+                  <c:v>72.636284817830344</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>354.09300000000002</c:v>
+                  <c:v>-32.13844950337905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-2.3157757990132533</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-2.3440169672939031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,76 +4793,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-358.98599999999999</c:v>
+                  <c:v>-28.106945674761686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-8.3568718557269633E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>837.63400000000001</c:v>
+                  <c:v>70.504142222816483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.3370994969163141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.1449304429699207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>837.63400000000001</c:v>
+                  <c:v>71.980522917328258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>837.63400000000001</c:v>
+                  <c:v>72.704785144824584</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1076.9580000000001</c:v>
+                  <c:v>-86.716473622926799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1076.9580000000001</c:v>
+                  <c:v>-88.109285598881286</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1076.9580000000001</c:v>
+                  <c:v>-88.025716880324012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1076.9580000000001</c:v>
+                  <c:v>-88.443560473110367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1316.2820000000002</c:v>
+                  <c:v>-108.44434044781691</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1316.2820000000002</c:v>
+                  <c:v>-108.61147788493145</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1076.9580000000001</c:v>
+                  <c:v>-88.666410389263092</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1076.9580000000001</c:v>
+                  <c:v>-88.805691586858543</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1316.2820000000002</c:v>
+                  <c:v>-108.77861532204598</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1316.2820000000002</c:v>
+                  <c:v>-108.97360899867961</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1076.9580000000001</c:v>
+                  <c:v>-89.056397742530351</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1076.9580000000001</c:v>
+                  <c:v>-89.25139141916398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-927.3805000000001</c:v>
+                  <c:v>-76.883221072688073</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-688.05650000000003</c:v>
+                  <c:v>-56.353172547118831</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-299.15500000000003</c:v>
+                  <c:v>-25.18204052525725</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-149.57750000000001</c:v>
+                  <c:v>-12.479595304552268</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-5.5712479038179753E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3344,76 +5259,76 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-7.1781666666668116</c:v>
+                  <c:v>0.60815943833966912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3333333333333333</c:v>
+                  <c:v>0.11296467312259773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12.883666666666727</c:v>
+                  <c:v>1.091549395215381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-25.767333333333454</c:v>
+                  <c:v>2.1830987904307619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-26.651000000000295</c:v>
+                  <c:v>2.2579661275427725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-27.31766666666681</c:v>
+                  <c:v>2.3144484641040606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-27.868000000000393</c:v>
+                  <c:v>2.3610746329354129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-28.868000000000393</c:v>
+                  <c:v>2.4457981377773876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-29.434000000000196</c:v>
+                  <c:v>2.4937516415179175</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-29.100666666666939</c:v>
+                  <c:v>2.4655104732372592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-29.612333333333254</c:v>
+                  <c:v>2.5088606665480455</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-28.612333333333254</c:v>
+                  <c:v>2.4241371617060992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-27.550333333333469</c:v>
+                  <c:v>2.3341607995639606</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-28.217000000000098</c:v>
+                  <c:v>2.3906431361252629</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-27.488333333333344</c:v>
+                  <c:v>2.3289079422637613</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-27.154999999999973</c:v>
+                  <c:v>2.3006667739831101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-25.759666666666703</c:v>
+                  <c:v>2.1824492435603098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-25.426333333333332</c:v>
+                  <c:v>2.1542080752796586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-25</c:v>
+                  <c:v>2.1180876210487076</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-25</c:v>
+                  <c:v>2.1180876210487076</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-27.899166666666702</c:v>
+                  <c:v>2.3637151821696563</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-25.240333333333297</c:v>
+                  <c:v>2.13844950337905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-27.333333333333332</c:v>
+                  <c:v>2.3157757990132533</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-27.666666666666668</c:v>
+                  <c:v>2.3440169672939031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3816,76 +5731,76 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-22.652666666666676</c:v>
+                  <c:v>-1.8930543252383139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>8.3568718557269633E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0326666666666142</c:v>
+                  <c:v>-0.50414222281648335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16</c:v>
+                  <c:v>-1.3370994969163141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-25.666666666666668</c:v>
+                  <c:v>-2.1449304429699207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-23.699333333333357</c:v>
+                  <c:v>-1.9805229173282584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-32.365999999999985</c:v>
+                  <c:v>-2.7047851448245837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-39.291333333333341</c:v>
+                  <c:v>-3.2835263770732013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-22.624666666666826</c:v>
+                  <c:v>-1.8907144011187142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-23.624666666666826</c:v>
+                  <c:v>-1.974283119675988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-18.624666666666826</c:v>
+                  <c:v>-1.5564395268896334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-18.61533333333341</c:v>
+                  <c:v>-1.5556595521830872</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-16.61533333333341</c:v>
+                  <c:v>-1.3885221150685538</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-15.958000000000084</c:v>
+                  <c:v>-1.3335896107369081</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-14.291333333333341</c:v>
+                  <c:v>-1.1943084131414565</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-14.61533333333341</c:v>
+                  <c:v>-1.2213846779540205</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-12.282000000000153</c:v>
+                  <c:v>-1.0263910013203912</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-11.291333333333341</c:v>
+                  <c:v>-0.94360225746964943</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.9580000000000837</c:v>
+                  <c:v>-0.74860858083602011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.3805000000000973</c:v>
+                  <c:v>-0.61677892731192685</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-13.723166666666657</c:v>
+                  <c:v>-1.1468274528811691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1783333333332848</c:v>
+                  <c:v>0.1820405252572499</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.24416666666667197</c:v>
+                  <c:v>-2.0404695447732379E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>5.5712479038179753E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4281,76 +6196,76 @@
             <c:numRef>
               <c:f>Ohne!$E$4:$E$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-0.84483333333332666</c:v>
+                  <c:v>7.1577241007304296E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.116333333333273</c:v>
+                  <c:v>-9.8561677299500161E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1006666666669389</c:v>
+                  <c:v>9.3252337662704576E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.9843333333337796</c:v>
+                  <c:v>0.25284317961668989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.98433333333377959</c:v>
+                  <c:v>8.3396169932768771E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.2013333333338778</c:v>
+                  <c:v>0.27122818016738393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.2013333333338778</c:v>
+                  <c:v>0.27122818016738393</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.767333333333454</c:v>
+                  <c:v>0.14973467422399267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1006666666669389</c:v>
+                  <c:v>9.3252337662704576E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.6123333333332539</c:v>
+                  <c:v>5.1879026131544492E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.94566666666673882</c:v>
+                  <c:v>8.0120194412216961E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.55033333333346945</c:v>
+                  <c:v>4.6626168831352288E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.55033333333346945</c:v>
+                  <c:v>4.6626168831352288E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.15499999999997272</c:v>
+                  <c:v>1.3132143250501827E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17833333333339851</c:v>
+                  <c:v>-1.5109025030149326E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24033333333329665</c:v>
+                  <c:v>-2.0361882330345082E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24033333333329665</c:v>
+                  <c:v>-2.0361882330345082E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>-5.6482336561298863E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>-8.4723504841948294E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1008333333332985</c:v>
+                  <c:v>-9.3266458246844763E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4263333333333321</c:v>
+                  <c:v>-0.12084395907290002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>-2.8241168280649431E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -4459,7 +6374,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4753,79 +6668,79 @@
             <c:numRef>
               <c:f>Ohne!$F$4:$F$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-30.319333333333304</c:v>
+                  <c:v>-2.533747834177376</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.6993333333333567</c:v>
+                  <c:v>-0.72699213896920867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.333333333333332</c:v>
+                  <c:v>-1.3649557364354039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-23.333333333333332</c:v>
+                  <c:v>-1.9499367663362914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-20.365999999999985</c:v>
+                  <c:v>-1.7019605221373553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-28.365999999999985</c:v>
+                  <c:v>-2.3705102705955028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-34.291333333333341</c:v>
+                  <c:v>-2.8656827842868466</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-21.291333333333341</c:v>
+                  <c:v>-1.7792894430423445</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-21.958000000000084</c:v>
+                  <c:v>-1.8350019220805365</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-16.958000000000084</c:v>
+                  <c:v>-1.4171583292941818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-16.61533333333341</c:v>
+                  <c:v>-1.3885221150685538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-14.61533333333341</c:v>
+                  <c:v>-1.2213846779540205</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-13.291333333333341</c:v>
+                  <c:v>-1.1107396945841828</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-11.624666666666826</c:v>
+                  <c:v>-0.97145849698874542</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-11.948666666666895</c:v>
+                  <c:v>-0.9985347618013094</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-9.9486666666668953</c:v>
+                  <c:v>-0.83139732468676186</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.9580000000000837</c:v>
+                  <c:v>-0.74860858083602011</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.6246666666668261</c:v>
+                  <c:v>-0.553614904202405</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.0471666666667261</c:v>
+                  <c:v>-0.5053539692355713</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-10.389833333333399</c:v>
+                  <c:v>-0.86826505769028017</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.5116666666666561</c:v>
+                  <c:v>0.54417163900541965</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0891666666666424</c:v>
+                  <c:v>0.34172641830043382</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>0.36213111374816842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4931,7 +6846,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5224,73 +7139,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-0.84483333333332666</c:v>
+                  <c:v>7.1577241007304337E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.116333333333273</c:v>
+                  <c:v>-9.8561677299500161E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1006666666669389</c:v>
+                  <c:v>9.3252337662704576E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.9843333333337796</c:v>
+                  <c:v>0.25284317961668989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.98433333333377959</c:v>
+                  <c:v>8.3396169932768771E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.2013333333338778</c:v>
+                  <c:v>0.27122818016738393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.2013333333338778</c:v>
+                  <c:v>0.27122818016738393</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.767333333333454</c:v>
+                  <c:v>0.14973467422399267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1006666666669389</c:v>
+                  <c:v>9.3252337662704576E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.6123333333332539</c:v>
+                  <c:v>5.1879026131544492E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.94566666666673882</c:v>
+                  <c:v>8.0120194412216961E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.55033333333346945</c:v>
+                  <c:v>4.6626168831352288E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.55033333333346945</c:v>
+                  <c:v>4.6626168831352288E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.15499999999997272</c:v>
+                  <c:v>1.3132143250501827E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17833333333339851</c:v>
+                  <c:v>-1.5109025030149326E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24033333333329665</c:v>
+                  <c:v>-2.0361882330345082E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24033333333329665</c:v>
+                  <c:v>-2.0361882330345082E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>-5.6482336561298863E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>-8.4723504841948294E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1008333333332985</c:v>
+                  <c:v>-9.3266458246844763E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4263333333333321</c:v>
+                  <c:v>-0.12084395907290002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>-2.8241168280649431E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -5682,76 +7597,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-17.878688806298044</c:v>
+                  <c:v>-1.1003802851361115</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.4184501513949499</c:v>
+                  <c:v>-1.2569908036500976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.7800879588585783</c:v>
+                  <c:v>-0.48986812377046496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.5119862610232797</c:v>
+                  <c:v>-0.63667989652968715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.5318714435868515</c:v>
+                  <c:v>-1.3514825714914735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.2658999931020389</c:v>
+                  <c:v>-1.5831982990567042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-13.191233326435395</c:v>
+                  <c:v>0.1257312759419591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.742348453559543</c:v>
+                  <c:v>0.33336816686998816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-11.404754625525356</c:v>
+                  <c:v>0.27724673023681135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-10.173162188594688</c:v>
+                  <c:v>0.38164826801435936</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.832625769278593</c:v>
+                  <c:v>0.68686781183725998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-9.338710646095933</c:v>
+                  <c:v>0.72873669692670262</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8.0147106460958639</c:v>
+                  <c:v>0.56454254454301633</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.8541288562469163</c:v>
+                  <c:v>0.57817026135182914</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-8.1759986088964069</c:v>
+                  <c:v>0.82726836854152452</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7.6842137330643254</c:v>
+                  <c:v>0.86895680366691863</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.6935470663975138</c:v>
+                  <c:v>0.6765214830025883</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.6204061719658966</c:v>
+                  <c:v>0.68275224909345411</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.0407759246152182</c:v>
+                  <c:v>0.55913047760722634</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.7255056283014483</c:v>
+                  <c:v>0.39411156901092426</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.257864969816751</c:v>
+                  <c:v>0.70623525137404641</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.091296914017164</c:v>
+                  <c:v>0.51935902734345163</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>0.36713518764844261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6062,6 +7977,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7991,6 +9946,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -12168,13 +14639,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:colOff>330201</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>103372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>251048</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -12191,8 +14662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="330200" y="508000"/>
-          <a:ext cx="5740400" cy="1600200"/>
+          <a:off x="330201" y="457791"/>
+          <a:ext cx="5709684" cy="1643911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12321,6 +14792,593 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2467639" cy="326951"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08399C61-2A1A-0C35-74E5-35DAA521E8FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6806314" y="544328"/>
+          <a:ext cx="2467639" cy="326951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>383952</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>141941</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103333CF-45D8-BF1E-4BDB-D2C5293D19CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="383952" y="2524886"/>
+          <a:ext cx="6391871" cy="2704526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>Haupt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Abschreiben</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>die</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Daten</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>und</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Zeichnen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>das</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Spurdiagramm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>(getrennt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>und</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>zusammen)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Ohne</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Ohne</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>die</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Abweichung</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>des</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Winkels</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>rechnen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Mit:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>die</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Abweichung</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>des</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Winkels</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>rechnen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>und</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>korrigieren</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>(genauer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>die</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Berechnungsformel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>SIN((</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0.3661</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>/360)*2*PI())*y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>+x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0.3661</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>ist</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Faktor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>uber</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Winkelsabweichung</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>y=y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>x=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>SIN((</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0.3661</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>/360)*2*PI())*y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>+x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1.halten</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>gleich</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>(weil</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>die</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Abweichung</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>bei</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Fahren</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>nach</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>y-achsen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>ist</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>fast</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>null)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>                                      </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12436,6 +15494,256 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>34920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>39160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>35280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>39520</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="墨迹 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C88E72-6754-140C-6AB8-F7831A0D2BEC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="61528320" y="1055160"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="墨迹 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C88E72-6754-140C-6AB8-F7831A0D2BEC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="61519680" y="1046160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>582840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>583200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3960</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="墨迹 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC4936B-F3A7-05C7-9DD3-5607FE5DA74D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="62076240" y="2286360"/>
+            <a:ext cx="360" cy="3600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="墨迹 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC4936B-F3A7-05C7-9DD3-5607FE5DA74D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="62067600" y="2277720"/>
+              <a:ext cx="18000" cy="21240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>34920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>39160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="墨迹 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12EC10E-DD37-B045-8059-F50B0D6CCE8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="61528320" y="1055160"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="墨迹 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12EC10E-DD37-B045-8059-F50B0D6CCE8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="61519680" y="1046160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>582840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="3600"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="墨迹 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601267FD-5CA9-3A47-88DE-5DCC0259DD34}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="62076240" y="2286360"/>
+            <a:ext cx="360" cy="3600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="墨迹 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601267FD-5CA9-3A47-88DE-5DCC0259DD34}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="62067600" y="2277720"/>
+              <a:ext cx="18000" cy="21240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12860,6 +16168,155 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E407A7E3-1717-C644-506F-DC85614C7A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-23T10:52:31.153"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-23T10:52:32.847"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 8191,'0'5'0,"0"-1"0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-23T10:56:40.460"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-23T10:56:40.461"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 8191,'0'5'0,"0"-1"0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -13125,7 +16582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29E9E7-23DD-5845-8C8C-79559A79A261}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="I9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -13133,46 +16590,91 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFF0000 VERTRAULICH</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView topLeftCell="X2" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG4" sqref="BG4:BH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="33" max="33" width="21.1640625" customWidth="1"/>
+    <col min="37" max="37" width="18.5" customWidth="1"/>
+    <col min="38" max="38" width="23" customWidth="1"/>
+    <col min="39" max="39" width="31.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="20" customHeight="1">
+    <row r="1" spans="1:62" ht="20" customHeight="1">
       <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="10"/>
       <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="T1" s="8" t="s">
+      <c r="R1" s="11"/>
+      <c r="T1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
+      <c r="AF1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AN1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AV1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BD1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
     </row>
-    <row r="2" spans="1:39" ht="20" customHeight="1">
+    <row r="2" spans="1:62" ht="20" customHeight="1">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -13183,8 +16685,36 @@
       <c r="I2" s="1"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
     </row>
-    <row r="3" spans="1:39" ht="20" customHeight="1">
+    <row r="3" spans="1:62" ht="20" customHeight="1">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -13226,19 +16756,57 @@
         <v>41</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AG3" s="9"/>
       <c r="AI3" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AJ3" s="9"/>
-      <c r="AL3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM3" s="9"/>
+      <c r="AK3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT3" s="9"/>
+      <c r="AV3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW3" s="14"/>
+      <c r="AY3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB3" s="14"/>
+      <c r="BD3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE3" s="14"/>
+      <c r="BG3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ3" s="14"/>
     </row>
-    <row r="4" spans="1:39" ht="20" customHeight="1">
+    <row r="4" spans="1:62" ht="20" customHeight="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -13318,31 +16886,101 @@
         <v>-0.36616504</v>
       </c>
       <c r="AF4">
-        <f>-Z4*$AB$4</f>
-        <v>-1947.5115000000001</v>
+        <f>-H4/$AB$4</f>
+        <v>164.39184056166033</v>
       </c>
       <c r="AG4">
-        <f>AA4*$AC$4</f>
-        <v>-358.98599999999999</v>
+        <f>I4/$AC$4</f>
+        <v>-28.106945674761686</v>
       </c>
       <c r="AI4" s="3">
-        <f>Q4</f>
-        <v>-1946.6666666666667</v>
-      </c>
-      <c r="AJ4">
-        <f>SIN((-$AD$4/360)*2*PI())*AI4+R4</f>
-        <v>-341.10731119370195</v>
-      </c>
-      <c r="AL4" s="3">
-        <f>H4</f>
-        <v>-1940.3333333333333</v>
-      </c>
-      <c r="AM4">
-        <f>SIN((-$AD$4/360)*2*PI())*AL4+I4</f>
-        <v>-348.73350316070866</v>
+        <f>Z4-AF4</f>
+        <v>0.60815943833966912</v>
+      </c>
+      <c r="AJ4" s="3">
+        <f>AA4-AG4</f>
+        <v>-1.8930543252383139</v>
+      </c>
+      <c r="AK4" s="15">
+        <f>AI4/Z4%</f>
+        <v>0.36858147778161765</v>
+      </c>
+      <c r="AL4" s="15">
+        <f>AJ4/AA4%</f>
+        <v>6.3101810841277128</v>
+      </c>
+      <c r="AN4" s="3">
+        <f>-Q4/$AB$4</f>
+        <v>164.9284227589927</v>
+      </c>
+      <c r="AO4" s="3">
+        <f>R4/$AC$4</f>
+        <v>-27.466252165822624</v>
+      </c>
+      <c r="AQ4" s="3">
+        <f>Z4-AN4</f>
+        <v>7.1577241007304337E-2</v>
+      </c>
+      <c r="AR4" s="3">
+        <f>AA4-AO4</f>
+        <v>-2.533747834177376</v>
+      </c>
+      <c r="AS4">
+        <f>AQ4/Z4%</f>
+        <v>4.3380146065032932E-2</v>
+      </c>
+      <c r="AT4">
+        <f>AR4/AA4%</f>
+        <v>8.4458261139245874</v>
+      </c>
+      <c r="AV4">
+        <v>164.39184056166033</v>
+      </c>
+      <c r="AW4">
+        <f>(I4-H4*SIN(-0.3661* PI()/180))/$AC$4</f>
+        <v>-29.143027913015843</v>
+      </c>
+      <c r="AY4">
+        <f>Z4-AV4</f>
+        <v>0.60815943833966912</v>
+      </c>
+      <c r="AZ4">
+        <f>AA4-AW4</f>
+        <v>-0.8569720869841575</v>
+      </c>
+      <c r="BA4">
+        <f>AY4/Z4%</f>
+        <v>0.36858147778161765</v>
+      </c>
+      <c r="BB4">
+        <f>AZ4/AA4%</f>
+        <v>2.856573623280525</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>164.9284227589927</v>
+      </c>
+      <c r="BE4">
+        <f>(R4-Q4*SIN(-0.3661* PI()/180))/$AB$4</f>
+        <v>-28.899619714863888</v>
+      </c>
+      <c r="BG4" s="3">
+        <f>Z4-BD4</f>
+        <v>7.1577241007304337E-2</v>
+      </c>
+      <c r="BH4" s="3">
+        <f>AA4-BE4</f>
+        <v>-1.1003802851361115</v>
+      </c>
+      <c r="BI4">
+        <f>BG4/Z4%</f>
+        <v>4.3380146065032932E-2</v>
+      </c>
+      <c r="BJ4">
+        <f>BH4/AA4%</f>
+        <v>3.6679342837870386</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="20" customHeight="1">
+    <row r="5" spans="1:62" ht="20" customHeight="1">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -13416,31 +17054,95 @@
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AF5">
-        <f t="shared" ref="AF5:AF27" si="6">-Z5*$AB$4</f>
+        <f t="shared" ref="AF5:AF27" si="6">-H5/$AB$4</f>
+        <v>-0.11296467312259773</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ref="AG5:AG27" si="7">I5/$AC$4</f>
+        <v>-8.3568718557269633E-2</v>
+      </c>
+      <c r="AI5" s="3">
+        <f t="shared" ref="AI5:AI27" si="8">Z5-AF5</f>
+        <v>0.11296467312259773</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f t="shared" ref="AJ5:AJ27" si="9">AA5-AG5</f>
+        <v>8.3568718557269633E-2</v>
+      </c>
+      <c r="AK5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN5" s="3">
+        <f>-Q5/$AB$4</f>
         <v>0</v>
       </c>
-      <c r="AG5">
-        <f t="shared" ref="AG5:AG27" si="7">AA5*$AC$4</f>
+      <c r="AO5" s="3">
+        <f>R5/$AC$4</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="3">
-        <f t="shared" ref="AI5:AI27" si="8">Q5</f>
+      <c r="AQ5" s="3">
+        <f>Z5-AN5</f>
         <v>0</v>
       </c>
-      <c r="AJ5">
-        <f>SIN((-$AD$4/360)*2*PI())*AI5+R5</f>
+      <c r="AR5" s="3">
+        <f>AA5-AO5</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="3">
-        <f t="shared" ref="AL5:AL27" si="9">H5</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" ref="AM5:AM27" si="10">SIN((-$AD$4/360)*2*PI())*AL5+I5</f>
-        <v>-0.9914790105979211</v>
+      <c r="AS5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV5">
+        <v>-0.11296467312259773</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" ref="AW5:AW27" si="10">(I5-H5*SIN(-0.3661* PI()/180))/$AC$4</f>
+        <v>-8.2856756874909801E-2</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" ref="AY5:AY27" si="11">Z5-AV5</f>
+        <v>0.11296467312259773</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" ref="AZ5:AZ27" si="12">AA5-AW5</f>
+        <v>8.2856756874909801E-2</v>
+      </c>
+      <c r="BA5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB5" t="e">
+        <f t="shared" ref="BB5:BB27" si="13">AZ5/AA5%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" ref="BE5:BE27" si="14">(R5-Q5*SIN(-0.3661* PI()/180))/$AB$4</f>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="3">
+        <f t="shared" ref="BG5:BG27" si="15">Z5-BD5</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="3">
+        <f t="shared" ref="BH5:BH27" si="16">AA5-BE5</f>
+        <v>0</v>
+      </c>
+      <c r="BI5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ5" t="e">
+        <f t="shared" ref="BJ5:BJ27" si="17">BH5/AA5%</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="4" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:62" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -13513,32 +17215,102 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
-      <c r="AF6">
+      <c r="AF6" s="13">
         <f t="shared" si="6"/>
-        <v>-826.2170000000001</v>
-      </c>
-      <c r="AG6">
+        <v>68.908450604784619</v>
+      </c>
+      <c r="AG6" s="13">
         <f t="shared" si="7"/>
-        <v>837.63400000000001</v>
+        <v>70.504142222816483</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="8"/>
-        <v>-826.33333333333337</v>
-      </c>
-      <c r="AJ6">
-        <f>SIN((-$AD$4/360)*2*PI())*AI6+R6</f>
-        <v>841.05245015139496</v>
-      </c>
-      <c r="AL6" s="3">
+        <v>1.091549395215381</v>
+      </c>
+      <c r="AJ6" s="3">
         <f t="shared" si="9"/>
-        <v>-813.33333333333337</v>
-      </c>
-      <c r="AM6">
+        <v>-0.50414222281648335</v>
+      </c>
+      <c r="AK6" s="15">
+        <f t="shared" ref="AK5:AK27" si="18">AI6/Z6%</f>
+        <v>1.5593562788791158</v>
+      </c>
+      <c r="AL6" s="15">
+        <f t="shared" ref="AL5:AL27" si="19">AJ6/AA6%</f>
+        <v>-0.72020317545211909</v>
+      </c>
+      <c r="AN6" s="3">
+        <f>-Q6/$AB$4</f>
+        <v>70.00985616772995</v>
+      </c>
+      <c r="AO6" s="3">
+        <f>R6/$AC$4</f>
+        <v>70.726992138969209</v>
+      </c>
+      <c r="AQ6" s="3">
+        <f>Z6-AN6</f>
+        <v>-9.8561677299500161E-3</v>
+      </c>
+      <c r="AR6" s="3">
+        <f>AA6-AO6</f>
+        <v>-0.72699213896920867</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" ref="AS5:AS27" si="20">AQ6/Z6%</f>
+        <v>-1.4080239614214309E-2</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" ref="AT5:AT27" si="21">AR6/AA6%</f>
+        <v>-1.0385601985274411</v>
+      </c>
+      <c r="AV6" s="13">
+        <v>68.908450604784619</v>
+      </c>
+      <c r="AW6">
         <f t="shared" si="10"/>
-        <v>838.46886313139851</v>
+        <v>70.069845596576982</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="11"/>
+        <v>1.091549395215381</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="12"/>
+        <v>-6.9845596576982416E-2</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" ref="BA5:BA27" si="22">AY6/Z6%</f>
+        <v>1.5593562788791158</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" si="13"/>
+        <v>-9.9779423681403454E-2</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>70.00985616772995</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" si="14"/>
+        <v>71.256990803650098</v>
+      </c>
+      <c r="BG6" s="3">
+        <f t="shared" si="15"/>
+        <v>-9.8561677299500161E-3</v>
+      </c>
+      <c r="BH6" s="3">
+        <f t="shared" si="16"/>
+        <v>-1.2569908036500976</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" ref="BI5:BI27" si="23">BG6/Z6%</f>
+        <v>-1.4080239614214309E-2</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" si="17"/>
+        <v>-1.7957011480715681</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="4" customFormat="1" ht="20" customHeight="1">
+    <row r="7" spans="1:62" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -13611,32 +17383,98 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
-      <c r="AF7">
+      <c r="AF7" s="13">
         <f t="shared" si="6"/>
-        <v>-1652.4340000000002</v>
-      </c>
-      <c r="AG7">
+        <v>137.81690120956924</v>
+      </c>
+      <c r="AG7" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.3370994969163141</v>
       </c>
       <c r="AI7" s="3">
         <f t="shared" si="8"/>
-        <v>-1651.3333333333333</v>
-      </c>
-      <c r="AJ7">
-        <f>SIN((-$AD$4/360)*2*PI())*AI7+R7</f>
-        <v>5.7800879588585783</v>
-      </c>
-      <c r="AL7" s="3">
+        <v>2.1830987904307619</v>
+      </c>
+      <c r="AJ7" s="3">
         <f t="shared" si="9"/>
-        <v>-1626.6666666666667</v>
-      </c>
-      <c r="AM7">
+        <v>-1.3370994969163141</v>
+      </c>
+      <c r="AK7" s="15">
+        <f t="shared" si="18"/>
+        <v>1.5593562788791158</v>
+      </c>
+      <c r="AL7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN7" s="3">
+        <f>-Q7/$AB$4</f>
+        <v>139.9067476623373</v>
+      </c>
+      <c r="AO7" s="3">
+        <f>R7/$AC$4</f>
+        <v>1.3649557364354039</v>
+      </c>
+      <c r="AQ7" s="3">
+        <f>Z7-AN7</f>
+        <v>9.3252337662704576E-2</v>
+      </c>
+      <c r="AR7" s="3">
+        <f>AA7-AO7</f>
+        <v>-1.3649557364354039</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="20"/>
+        <v>6.6608812616217553E-2</v>
+      </c>
+      <c r="AT7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV7" s="13">
+        <v>137.81690120956924</v>
+      </c>
+      <c r="AW7">
         <f t="shared" si="10"/>
-        <v>5.6043929294637049</v>
+        <v>0.46850624443731059</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="11"/>
+        <v>2.1830987904307619</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="12"/>
+        <v>-0.46850624443731059</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="22"/>
+        <v>1.5593562788791158</v>
+      </c>
+      <c r="BB7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>139.9067476623373</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="14"/>
+        <v>0.48986812377046496</v>
+      </c>
+      <c r="BG7" s="3">
+        <f t="shared" si="15"/>
+        <v>9.3252337662704576E-2</v>
+      </c>
+      <c r="BH7" s="3">
+        <f t="shared" si="16"/>
+        <v>-0.48986812377046496</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="23"/>
+        <v>6.6608812616217553E-2</v>
+      </c>
+      <c r="BJ7" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="20" customHeight="1">
+    <row r="8" spans="1:62" ht="20" customHeight="1">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -13711,30 +17549,96 @@
       <c r="AD8" s="9"/>
       <c r="AF8">
         <f t="shared" si="6"/>
-        <v>-2478.6510000000003</v>
+        <v>207.74203387245723</v>
       </c>
       <c r="AG8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.1449304429699207</v>
       </c>
       <c r="AI8" s="3">
         <f t="shared" si="8"/>
-        <v>-2475.6666666666665</v>
-      </c>
-      <c r="AJ8">
-        <f>SIN((-$AD$4/360)*2*PI())*AI8+R8</f>
-        <v>7.5119862610232797</v>
-      </c>
-      <c r="AL8" s="3">
+        <v>2.2579661275427725</v>
+      </c>
+      <c r="AJ8" s="3">
         <f t="shared" si="9"/>
-        <v>-2452</v>
-      </c>
-      <c r="AM8">
+        <v>-2.1449304429699207</v>
+      </c>
+      <c r="AK8" s="15">
+        <f t="shared" si="18"/>
+        <v>1.0752219654965582</v>
+      </c>
+      <c r="AL8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN8" s="3">
+        <f>-Q8/$AB$4</f>
+        <v>209.74715682038331</v>
+      </c>
+      <c r="AO8" s="3">
+        <f>R8/$AC$4</f>
+        <v>1.9499367663362914</v>
+      </c>
+      <c r="AQ8" s="3">
+        <f>Z8-AN8</f>
+        <v>0.25284317961668989</v>
+      </c>
+      <c r="AR8" s="3">
+        <f>AA8-AO8</f>
+        <v>-1.9499367663362914</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="20"/>
+        <v>0.12040151410318566</v>
+      </c>
+      <c r="AT8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV8">
+        <v>207.74203387245723</v>
+      </c>
+      <c r="AW8">
         <f t="shared" si="10"/>
-        <v>9.9965671562435148</v>
+        <v>0.83563290911017685</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="11"/>
+        <v>2.2579661275427725</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="12"/>
+        <v>-0.83563290911017685</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="22"/>
+        <v>1.0752219654965582</v>
+      </c>
+      <c r="BB8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>209.74715682038331</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="14"/>
+        <v>0.63667989652968715</v>
+      </c>
+      <c r="BG8" s="3">
+        <f t="shared" si="15"/>
+        <v>0.25284317961668989</v>
+      </c>
+      <c r="BH8" s="3">
+        <f t="shared" si="16"/>
+        <v>-0.63667989652968715</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="23"/>
+        <v>0.12040151410318566</v>
+      </c>
+      <c r="BJ8" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="20" customHeight="1">
+    <row r="9" spans="1:62" ht="20" customHeight="1">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -13809,30 +17713,100 @@
       <c r="AD9" s="9"/>
       <c r="AF9">
         <f t="shared" si="6"/>
-        <v>-2478.6510000000003</v>
+        <v>207.68555153589594</v>
       </c>
       <c r="AG9">
         <f t="shared" si="7"/>
-        <v>837.63400000000001</v>
+        <v>71.980522917328258</v>
       </c>
       <c r="AI9" s="3">
         <f t="shared" si="8"/>
-        <v>-2477.6666666666665</v>
-      </c>
-      <c r="AJ9">
-        <f>SIN((-$AD$4/360)*2*PI())*AI9+R9</f>
-        <v>842.16587144358687</v>
-      </c>
-      <c r="AL9" s="3">
+        <v>2.3144484641040606</v>
+      </c>
+      <c r="AJ9" s="3">
         <f t="shared" si="9"/>
-        <v>-2451.3333333333335</v>
-      </c>
-      <c r="AM9">
+        <v>-1.9805229173282584</v>
+      </c>
+      <c r="AK9" s="15">
+        <f t="shared" si="18"/>
+        <v>1.1021183162400288</v>
+      </c>
+      <c r="AL9" s="15">
+        <f t="shared" si="19"/>
+        <v>-2.8293184533260836</v>
+      </c>
+      <c r="AN9" s="3">
+        <f>-Q9/$AB$4</f>
+        <v>209.91660383006723</v>
+      </c>
+      <c r="AO9" s="3">
+        <f>R9/$AC$4</f>
+        <v>71.701960522137355</v>
+      </c>
+      <c r="AQ9" s="3">
+        <f>Z9-AN9</f>
+        <v>8.3396169932768771E-2</v>
+      </c>
+      <c r="AR9" s="3">
+        <f>AA9-AO9</f>
+        <v>-1.7019605221373553</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="20"/>
+        <v>3.9712461872747032E-2</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="21"/>
+        <v>-2.4313721744819361</v>
+      </c>
+      <c r="AV9">
+        <v>207.68555153589594</v>
+      </c>
+      <c r="AW9">
         <f t="shared" si="10"/>
-        <v>845.66749431761127</v>
+        <v>70.671581364309688</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="11"/>
+        <v>2.3144484641040606</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="12"/>
+        <v>-0.67158136430968796</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="22"/>
+        <v>1.1021183162400288</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="13"/>
+        <v>-0.95940194901384002</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>209.91660383006723</v>
+      </c>
+      <c r="BE9">
+        <f t="shared" si="14"/>
+        <v>71.351482571491474</v>
+      </c>
+      <c r="BG9" s="3">
+        <f t="shared" si="15"/>
+        <v>8.3396169932768771E-2</v>
+      </c>
+      <c r="BH9" s="3">
+        <f t="shared" si="16"/>
+        <v>-1.3514825714914735</v>
+      </c>
+      <c r="BI9">
+        <f t="shared" si="23"/>
+        <v>3.9712461872747032E-2</v>
+      </c>
+      <c r="BJ9">
+        <f t="shared" si="17"/>
+        <v>-1.9306893878449622</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="20" customHeight="1">
+    <row r="10" spans="1:62" ht="20" customHeight="1">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -13907,30 +17881,100 @@
       <c r="AD10" s="9"/>
       <c r="AF10">
         <f t="shared" si="6"/>
-        <v>-3304.8680000000004</v>
+        <v>277.63892536706459</v>
       </c>
       <c r="AG10">
         <f t="shared" si="7"/>
-        <v>837.63400000000001</v>
+        <v>72.704785144824584</v>
       </c>
       <c r="AI10" s="3">
         <f t="shared" si="8"/>
-        <v>-3301.6666666666665</v>
-      </c>
-      <c r="AJ10">
-        <f>SIN((-$AD$4/360)*2*PI())*AI10+R10</f>
-        <v>844.89989999310205</v>
-      </c>
-      <c r="AL10" s="3">
+        <v>2.3610746329354129</v>
+      </c>
+      <c r="AJ10" s="3">
         <f t="shared" si="9"/>
-        <v>-3277</v>
-      </c>
-      <c r="AM10">
+        <v>-2.7047851448245837</v>
+      </c>
+      <c r="AK10" s="15">
+        <f t="shared" si="18"/>
+        <v>0.84324094033407604</v>
+      </c>
+      <c r="AL10" s="15">
+        <f t="shared" si="19"/>
+        <v>-3.8639787783208339</v>
+      </c>
+      <c r="AN10" s="3">
+        <f>-Q10/$AB$4</f>
+        <v>279.72877181983262</v>
+      </c>
+      <c r="AO10" s="3">
+        <f>R10/$AC$4</f>
+        <v>72.370510270595503</v>
+      </c>
+      <c r="AQ10" s="3">
+        <f>Z10-AN10</f>
+        <v>0.27122818016738393</v>
+      </c>
+      <c r="AR10" s="3">
+        <f>AA10-AO10</f>
+        <v>-2.3705102705955028</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="20"/>
+        <v>9.6867207202637126E-2</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="21"/>
+        <v>-3.3864432437078613</v>
+      </c>
+      <c r="AV10">
+        <v>277.63892536706459</v>
+      </c>
+      <c r="AW10">
         <f t="shared" si="10"/>
-        <v>849.05753829704054</v>
+        <v>70.954961320004685</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="11"/>
+        <v>2.3610746329354129</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="12"/>
+        <v>-0.95496132000468492</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="22"/>
+        <v>0.84324094033407604</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="13"/>
+        <v>-1.36423045714955</v>
+      </c>
+      <c r="BD10" s="3">
+        <v>279.72877181983262</v>
+      </c>
+      <c r="BE10">
+        <f t="shared" si="14"/>
+        <v>71.583198299056704</v>
+      </c>
+      <c r="BG10" s="3">
+        <f t="shared" si="15"/>
+        <v>0.27122818016738393</v>
+      </c>
+      <c r="BH10" s="3">
+        <f t="shared" si="16"/>
+        <v>-1.5831982990567042</v>
+      </c>
+      <c r="BI10">
+        <f t="shared" si="23"/>
+        <v>9.6867207202637126E-2</v>
+      </c>
+      <c r="BJ10">
+        <f t="shared" si="17"/>
+        <v>-2.261711855795292</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="20" customHeight="1">
+    <row r="11" spans="1:62" ht="20" customHeight="1">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -14005,30 +18049,100 @@
       <c r="AD11" s="9"/>
       <c r="AF11">
         <f t="shared" si="6"/>
-        <v>-3304.8680000000004</v>
+        <v>277.55420186222261</v>
       </c>
       <c r="AG11">
         <f t="shared" si="7"/>
-        <v>-1076.9580000000001</v>
+        <v>-86.716473622926799</v>
       </c>
       <c r="AI11" s="3">
         <f t="shared" si="8"/>
-        <v>-3301.6666666666665</v>
-      </c>
-      <c r="AJ11">
-        <f>SIN((-$AD$4/360)*2*PI())*AI11+R11</f>
-        <v>-1063.7667666735647</v>
-      </c>
-      <c r="AL11" s="3">
+        <v>2.4457981377773876</v>
+      </c>
+      <c r="AJ11" s="3">
         <f t="shared" si="9"/>
-        <v>-3276</v>
-      </c>
-      <c r="AM11">
+        <v>-3.2835263770732013</v>
+      </c>
+      <c r="AK11" s="15">
+        <f t="shared" si="18"/>
+        <v>0.87349933492049558</v>
+      </c>
+      <c r="AL11" s="15">
+        <f t="shared" si="19"/>
+        <v>3.6483626411924459</v>
+      </c>
+      <c r="AN11" s="3">
+        <f>-Q11/$AB$4</f>
+        <v>279.72877181983262</v>
+      </c>
+      <c r="AO11" s="3">
+        <f>R11/$AC$4</f>
+        <v>-87.134317215713153</v>
+      </c>
+      <c r="AQ11" s="3">
+        <f>Z11-AN11</f>
+        <v>0.27122818016738393</v>
+      </c>
+      <c r="AR11" s="3">
+        <f>AA11-AO11</f>
+        <v>-2.8656827842868466</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="20"/>
+        <v>9.6867207202637126E-2</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="21"/>
+        <v>3.1840919825409406</v>
+      </c>
+      <c r="AV11">
+        <v>277.55420186222261</v>
+      </c>
+      <c r="AW11">
         <f t="shared" si="10"/>
-        <v>-1058.6027376275747</v>
+        <v>-88.465763476484923</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="11"/>
+        <v>2.4457981377773876</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="12"/>
+        <v>-1.5342365235150766</v>
+      </c>
+      <c r="BA11">
+        <f t="shared" si="22"/>
+        <v>0.87349933492049558</v>
+      </c>
+      <c r="BB11">
+        <f t="shared" si="13"/>
+        <v>1.7047072483500849</v>
+      </c>
+      <c r="BD11" s="3">
+        <v>279.72877181983262</v>
+      </c>
+      <c r="BE11">
+        <f t="shared" si="14"/>
+        <v>-90.125731275941959</v>
+      </c>
+      <c r="BG11" s="3">
+        <f t="shared" si="15"/>
+        <v>0.27122818016738393</v>
+      </c>
+      <c r="BH11" s="3">
+        <f t="shared" si="16"/>
+        <v>0.1257312759419591</v>
+      </c>
+      <c r="BI11">
+        <f t="shared" si="23"/>
+        <v>9.6867207202637126E-2</v>
+      </c>
+      <c r="BJ11">
+        <f t="shared" si="17"/>
+        <v>-0.1397014177132879</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="20" customHeight="1">
+    <row r="12" spans="1:62" ht="20" customHeight="1">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -14103,30 +18217,100 @@
       <c r="AD12" s="9"/>
       <c r="AF12">
         <f t="shared" si="6"/>
-        <v>-1652.4340000000002</v>
+        <v>137.50624835848208</v>
       </c>
       <c r="AG12">
         <f t="shared" si="7"/>
-        <v>-1076.9580000000001</v>
+        <v>-88.109285598881286</v>
       </c>
       <c r="AI12" s="3">
         <f t="shared" si="8"/>
-        <v>-1650.6666666666667</v>
-      </c>
-      <c r="AJ12">
-        <f>SIN((-$AD$4/360)*2*PI())*AI12+R12</f>
-        <v>-1066.2156515464405</v>
-      </c>
-      <c r="AL12" s="3">
+        <v>2.4937516415179175</v>
+      </c>
+      <c r="AJ12" s="3">
         <f t="shared" si="9"/>
-        <v>-1623</v>
-      </c>
-      <c r="AM12">
+        <v>-1.8907144011187142</v>
+      </c>
+      <c r="AK12" s="15">
+        <f t="shared" si="18"/>
+        <v>1.7812511725127984</v>
+      </c>
+      <c r="AL12" s="15">
+        <f t="shared" si="19"/>
+        <v>2.1007937790207936</v>
+      </c>
+      <c r="AN12" s="3">
+        <f>-Q12/$AB$4</f>
+        <v>139.85026532577601</v>
+      </c>
+      <c r="AO12" s="3">
+        <f>R12/$AC$4</f>
+        <v>-88.220710556957656</v>
+      </c>
+      <c r="AQ12" s="3">
+        <f>Z12-AN12</f>
+        <v>0.14973467422399267</v>
+      </c>
+      <c r="AR12" s="3">
+        <f>AA12-AO12</f>
+        <v>-1.7792894430423445</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="20"/>
+        <v>0.10695333873142335</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="21"/>
+        <v>1.9769882700470494</v>
+      </c>
+      <c r="AV12">
+        <v>137.50624835848208</v>
+      </c>
+      <c r="AW12">
         <f t="shared" si="10"/>
-        <v>-1064.7055076830138</v>
+        <v>-88.975920956733802</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="11"/>
+        <v>2.4937516415179175</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="12"/>
+        <v>-1.0240790432661981</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="22"/>
+        <v>1.7812511725127984</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="13"/>
+        <v>1.137865603629109</v>
+      </c>
+      <c r="BD12" s="3">
+        <v>139.85026532577601</v>
+      </c>
+      <c r="BE12">
+        <f t="shared" si="14"/>
+        <v>-90.333368166869988</v>
+      </c>
+      <c r="BG12" s="3">
+        <f t="shared" si="15"/>
+        <v>0.14973467422399267</v>
+      </c>
+      <c r="BH12" s="3">
+        <f t="shared" si="16"/>
+        <v>0.33336816686998816</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="23"/>
+        <v>0.10695333873142335</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="17"/>
+        <v>-0.37040907429998682</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="20" customHeight="1">
+    <row r="13" spans="1:62" ht="20" customHeight="1">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -14201,30 +18385,100 @@
       <c r="AD13" s="9"/>
       <c r="AF13">
         <f t="shared" si="6"/>
-        <v>-1652.4340000000002</v>
+        <v>137.53448952676274</v>
       </c>
       <c r="AG13">
         <f t="shared" si="7"/>
-        <v>-1076.9580000000001</v>
+        <v>-88.025716880324012</v>
       </c>
       <c r="AI13" s="3">
         <f t="shared" si="8"/>
-        <v>-1651.3333333333333</v>
-      </c>
-      <c r="AJ13">
-        <f>SIN((-$AD$4/360)*2*PI())*AI13+R13</f>
-        <v>-1065.5532453744747</v>
-      </c>
-      <c r="AL13" s="3">
+        <v>2.4655104732372592</v>
+      </c>
+      <c r="AJ13" s="3">
         <f t="shared" si="9"/>
-        <v>-1623.3333333333333</v>
-      </c>
-      <c r="AM13">
+        <v>-1.974283119675988</v>
+      </c>
+      <c r="AK13" s="15">
+        <f t="shared" si="18"/>
+        <v>1.7610789094551853</v>
+      </c>
+      <c r="AL13" s="15">
+        <f t="shared" si="19"/>
+        <v>2.1936479107510976</v>
+      </c>
+      <c r="AN13" s="3">
+        <f>-Q13/$AB$4</f>
+        <v>139.9067476623373</v>
+      </c>
+      <c r="AO13" s="3">
+        <f>R13/$AC$4</f>
+        <v>-88.164998077919464</v>
+      </c>
+      <c r="AQ13" s="3">
+        <f>Z13-AN13</f>
+        <v>9.3252337662704576E-2</v>
+      </c>
+      <c r="AR13" s="3">
+        <f>AA13-AO13</f>
+        <v>-1.8350019220805365</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="20"/>
+        <v>6.6608812616217553E-2</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="21"/>
+        <v>2.0388910245339296</v>
+      </c>
+      <c r="AV13">
+        <v>137.53448952676274</v>
+      </c>
+      <c r="AW13">
         <f t="shared" si="10"/>
-        <v>-1063.7076379303644</v>
+        <v>-88.89253022859711</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="11"/>
+        <v>2.4655104732372592</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="12"/>
+        <v>-1.10746977140289</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="22"/>
+        <v>1.7610789094551853</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="13"/>
+        <v>1.2305219682254334</v>
+      </c>
+      <c r="BD13" s="3">
+        <v>139.9067476623373</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" si="14"/>
+        <v>-90.277246730236811</v>
+      </c>
+      <c r="BG13" s="3">
+        <f t="shared" si="15"/>
+        <v>9.3252337662704576E-2</v>
+      </c>
+      <c r="BH13" s="3">
+        <f t="shared" si="16"/>
+        <v>0.27724673023681135</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="23"/>
+        <v>6.6608812616217553E-2</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="17"/>
+        <v>-0.30805192248534591</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="20" customHeight="1">
+    <row r="14" spans="1:62" ht="20" customHeight="1">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -14299,30 +18553,100 @@
       <c r="AD14" s="9"/>
       <c r="AF14">
         <f t="shared" si="6"/>
-        <v>-1062.279</v>
+        <v>87.491139333451954</v>
       </c>
       <c r="AG14">
         <f t="shared" si="7"/>
-        <v>-1076.9580000000001</v>
+        <v>-88.443560473110367</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="8"/>
-        <v>-1061.6666666666667</v>
-      </c>
-      <c r="AJ14">
-        <f>SIN((-$AD$4/360)*2*PI())*AI14+R14</f>
-        <v>-1066.7848378114054</v>
-      </c>
-      <c r="AL14" s="3">
+        <v>2.5088606665480455</v>
+      </c>
+      <c r="AJ14" s="3">
         <f t="shared" si="9"/>
-        <v>-1032.6666666666667</v>
-      </c>
-      <c r="AM14">
+        <v>-1.5564395268896334</v>
+      </c>
+      <c r="AK14" s="15">
+        <f t="shared" si="18"/>
+        <v>2.7876229628311617</v>
+      </c>
+      <c r="AL14" s="15">
+        <f t="shared" si="19"/>
+        <v>1.7293772520995927</v>
+      </c>
+      <c r="AN14" s="3">
+        <f>-Q14/$AB$4</f>
+        <v>89.948120973868456</v>
+      </c>
+      <c r="AO14" s="3">
+        <f>R14/$AC$4</f>
+        <v>-88.582841670705818</v>
+      </c>
+      <c r="AQ14" s="3">
+        <f>Z14-AN14</f>
+        <v>5.1879026131544492E-2</v>
+      </c>
+      <c r="AR14" s="3">
+        <f>AA14-AO14</f>
+        <v>-1.4171583292941818</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="20"/>
+        <v>5.7643362368382765E-2</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="21"/>
+        <v>1.5746203658824243</v>
+      </c>
+      <c r="AV14">
+        <v>87.491139333451954</v>
+      </c>
+      <c r="AW14">
         <f t="shared" si="10"/>
-        <v>-1064.9328396252433</v>
+        <v>-88.994974796098049</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="11"/>
+        <v>2.5088606665480455</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="12"/>
+        <v>-1.0050252039019512</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="22"/>
+        <v>2.7876229628311617</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" si="13"/>
+        <v>1.1166946710021679</v>
+      </c>
+      <c r="BD14" s="3">
+        <v>89.948120973868456</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="14"/>
+        <v>-90.381648268014359</v>
+      </c>
+      <c r="BG14" s="3">
+        <f t="shared" si="15"/>
+        <v>5.1879026131544492E-2</v>
+      </c>
+      <c r="BH14" s="3">
+        <f t="shared" si="16"/>
+        <v>0.38164826801435936</v>
+      </c>
+      <c r="BI14">
+        <f t="shared" si="23"/>
+        <v>5.7643362368382765E-2</v>
+      </c>
+      <c r="BJ14">
+        <f t="shared" si="17"/>
+        <v>-0.42405363112706596</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="20" customHeight="1">
+    <row r="15" spans="1:62" ht="20" customHeight="1">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -14397,30 +18721,100 @@
       <c r="AD15" s="9"/>
       <c r="AF15">
         <f t="shared" si="6"/>
-        <v>-1062.279</v>
+        <v>87.575862838293901</v>
       </c>
       <c r="AG15">
         <f t="shared" si="7"/>
-        <v>-1316.2820000000002</v>
+        <v>-108.44434044781691</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="8"/>
-        <v>-1061.3333333333333</v>
-      </c>
-      <c r="AJ15">
-        <f>SIN((-$AD$4/360)*2*PI())*AI15+R15</f>
-        <v>-1306.4493742307216</v>
-      </c>
-      <c r="AL15" s="3">
+        <v>2.4241371617060992</v>
+      </c>
+      <c r="AJ15" s="3">
         <f t="shared" si="9"/>
-        <v>-1033.6666666666667</v>
-      </c>
-      <c r="AM15">
+        <v>-1.5556595521830872</v>
+      </c>
+      <c r="AK15" s="15">
+        <f t="shared" si="18"/>
+        <v>2.6934857352289989</v>
+      </c>
+      <c r="AL15" s="15">
+        <f t="shared" si="19"/>
+        <v>1.4142359565300791</v>
+      </c>
+      <c r="AN15" s="3">
+        <f>-Q15/$AB$4</f>
+        <v>89.919879805587783</v>
+      </c>
+      <c r="AO15" s="3">
+        <f>R15/$AC$4</f>
+        <v>-108.61147788493145</v>
+      </c>
+      <c r="AQ15" s="3">
+        <f>Z15-AN15</f>
+        <v>8.0120194412216961E-2</v>
+      </c>
+      <c r="AR15" s="3">
+        <f>AA15-AO15</f>
+        <v>-1.3885221150685538</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="20"/>
+        <v>8.9022438235796628E-2</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="21"/>
+        <v>1.2622928318805033</v>
+      </c>
+      <c r="AV15">
+        <v>87.575862838293901</v>
+      </c>
+      <c r="AW15">
         <f t="shared" si="10"/>
-        <v>-1304.2725637006283</v>
+        <v>-108.99628874206638</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="11"/>
+        <v>2.4241371617060992</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="12"/>
+        <v>-1.0037112579336167</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="22"/>
+        <v>2.6934857352289989</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="13"/>
+        <v>0.91246477993965147</v>
+      </c>
+      <c r="BD15" s="3">
+        <v>89.919879805587783</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="14"/>
+        <v>-110.68686781183726</v>
+      </c>
+      <c r="BG15" s="3">
+        <f t="shared" si="15"/>
+        <v>8.0120194412216961E-2</v>
+      </c>
+      <c r="BH15" s="3">
+        <f t="shared" si="16"/>
+        <v>0.68686781183725998</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="23"/>
+        <v>8.9022438235796628E-2</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" si="17"/>
+        <v>-0.62442528348841808</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="20" customHeight="1">
+    <row r="16" spans="1:62" ht="20" customHeight="1">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -14495,30 +18889,100 @@
       <c r="AD16" s="9"/>
       <c r="AF16">
         <f t="shared" si="6"/>
-        <v>-826.2170000000001</v>
+        <v>67.665839200436039</v>
       </c>
       <c r="AG16">
         <f t="shared" si="7"/>
-        <v>-1316.2820000000002</v>
+        <v>-108.61147788493145</v>
       </c>
       <c r="AI16" s="3">
         <f t="shared" si="8"/>
-        <v>-825.66666666666663</v>
-      </c>
-      <c r="AJ16">
-        <f>SIN((-$AD$4/360)*2*PI())*AI16+R16</f>
-        <v>-1306.9432893539042</v>
-      </c>
-      <c r="AL16" s="3">
+        <v>2.3341607995639606</v>
+      </c>
+      <c r="AJ16" s="3">
         <f t="shared" si="9"/>
-        <v>-798.66666666666663</v>
-      </c>
-      <c r="AM16">
+        <v>-1.3885221150685538</v>
+      </c>
+      <c r="AK16" s="15">
+        <f t="shared" si="18"/>
+        <v>3.3345154279485154</v>
+      </c>
+      <c r="AL16" s="15">
+        <f t="shared" si="19"/>
+        <v>1.2622928318805033</v>
+      </c>
+      <c r="AN16" s="3">
+        <f>-Q16/$AB$4</f>
+        <v>69.953373831168648</v>
+      </c>
+      <c r="AO16" s="3">
+        <f>R16/$AC$4</f>
+        <v>-108.77861532204598</v>
+      </c>
+      <c r="AQ16" s="3">
+        <f>Z16-AN16</f>
+        <v>4.6626168831352288E-2</v>
+      </c>
+      <c r="AR16" s="3">
+        <f>AA16-AO16</f>
+        <v>-1.2213846779540205</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="20"/>
+        <v>6.6608812616217553E-2</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="21"/>
+        <v>1.1103497072309276</v>
+      </c>
+      <c r="AV16">
+        <v>67.665839200436039</v>
+      </c>
+      <c r="AW16">
         <f t="shared" si="10"/>
-        <v>-1304.7707393185119</v>
+        <v>-109.03794293266499</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="11"/>
+        <v>2.3341607995639606</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="12"/>
+        <v>-0.96205706733501017</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="22"/>
+        <v>3.3345154279485154</v>
+      </c>
+      <c r="BB16">
+        <f t="shared" si="13"/>
+        <v>0.87459733394091832</v>
+      </c>
+      <c r="BD16" s="3">
+        <v>69.953373831168648</v>
+      </c>
+      <c r="BE16">
+        <f t="shared" si="14"/>
+        <v>-110.7287366969267</v>
+      </c>
+      <c r="BG16" s="3">
+        <f t="shared" si="15"/>
+        <v>4.6626168831352288E-2</v>
+      </c>
+      <c r="BH16" s="3">
+        <f t="shared" si="16"/>
+        <v>0.72873669692670262</v>
+      </c>
+      <c r="BI16">
+        <f t="shared" si="23"/>
+        <v>6.6608812616217553E-2</v>
+      </c>
+      <c r="BJ16">
+        <f t="shared" si="17"/>
+        <v>-0.66248790629700238</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="20" customHeight="1">
+    <row r="17" spans="1:62" ht="20" customHeight="1">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -14593,30 +19057,100 @@
       <c r="AD17" s="9"/>
       <c r="AF17">
         <f t="shared" si="6"/>
-        <v>-826.2170000000001</v>
+        <v>67.609356863874737</v>
       </c>
       <c r="AG17">
         <f t="shared" si="7"/>
-        <v>-1076.9580000000001</v>
+        <v>-88.666410389263092</v>
       </c>
       <c r="AI17" s="3">
         <f t="shared" si="8"/>
-        <v>-825.66666666666663</v>
-      </c>
-      <c r="AJ17">
-        <f>SIN((-$AD$4/360)*2*PI())*AI17+R17</f>
-        <v>-1068.9432893539042</v>
-      </c>
-      <c r="AL17" s="3">
+        <v>2.3906431361252629</v>
+      </c>
+      <c r="AJ17" s="3">
         <f t="shared" si="9"/>
-        <v>-798</v>
-      </c>
-      <c r="AM17">
+        <v>-1.3335896107369081</v>
+      </c>
+      <c r="AK17" s="15">
+        <f t="shared" si="18"/>
+        <v>3.4152044801789474</v>
+      </c>
+      <c r="AL17" s="15">
+        <f t="shared" si="19"/>
+        <v>1.4817662341521201</v>
+      </c>
+      <c r="AN17" s="3">
+        <f>-Q17/$AB$4</f>
+        <v>69.953373831168648</v>
+      </c>
+      <c r="AO17" s="3">
+        <f>R17/$AC$4</f>
+        <v>-88.889260305415817</v>
+      </c>
+      <c r="AQ17" s="3">
+        <f>Z17-AN17</f>
+        <v>4.6626168831352288E-2</v>
+      </c>
+      <c r="AR17" s="3">
+        <f>AA17-AO17</f>
+        <v>-1.1107396945841828</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="20"/>
+        <v>6.6608812616217553E-2</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="21"/>
+        <v>1.2341552162046474</v>
+      </c>
+      <c r="AV17">
+        <v>67.609356863874737</v>
+      </c>
+      <c r="AW17">
         <f t="shared" si="10"/>
-        <v>-1066.0998121571442</v>
+        <v>-89.092519456155443</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="11"/>
+        <v>2.3906431361252629</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="12"/>
+        <v>-0.90748054384455656</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="22"/>
+        <v>3.4152044801789474</v>
+      </c>
+      <c r="BB17">
+        <f t="shared" si="13"/>
+        <v>1.0083117153828407</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>69.953373831168648</v>
+      </c>
+      <c r="BE17">
+        <f t="shared" si="14"/>
+        <v>-90.564542544543016</v>
+      </c>
+      <c r="BG17" s="3">
+        <f t="shared" si="15"/>
+        <v>4.6626168831352288E-2</v>
+      </c>
+      <c r="BH17" s="3">
+        <f t="shared" si="16"/>
+        <v>0.56454254454301633</v>
+      </c>
+      <c r="BI17">
+        <f t="shared" si="23"/>
+        <v>6.6608812616217553E-2</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" si="17"/>
+        <v>-0.62726949393668485</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="20" customHeight="1">
+    <row r="18" spans="1:62" ht="20" customHeight="1">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -14691,30 +19225,100 @@
       <c r="AD18" s="9"/>
       <c r="AF18">
         <f t="shared" si="6"/>
-        <v>-590.15499999999997</v>
+        <v>47.671092057736239</v>
       </c>
       <c r="AG18">
         <f t="shared" si="7"/>
-        <v>-1076.9580000000001</v>
+        <v>-88.805691586858543</v>
       </c>
       <c r="AI18" s="3">
         <f t="shared" si="8"/>
-        <v>-590</v>
-      </c>
-      <c r="AJ18">
-        <f>SIN((-$AD$4/360)*2*PI())*AI18+R18</f>
-        <v>-1069.1038711437532</v>
-      </c>
-      <c r="AL18" s="3">
+        <v>2.3289079422637613</v>
+      </c>
+      <c r="AJ18" s="3">
         <f t="shared" si="9"/>
-        <v>-562.66666666666663</v>
-      </c>
-      <c r="AM18">
+        <v>-1.1943084131414565</v>
+      </c>
+      <c r="AK18" s="15">
+        <f t="shared" si="18"/>
+        <v>4.6578158845275226</v>
+      </c>
+      <c r="AL18" s="15">
+        <f t="shared" si="19"/>
+        <v>1.3270093479349516</v>
+      </c>
+      <c r="AN18" s="3">
+        <f>-Q18/$AB$4</f>
+        <v>49.986867856749498</v>
+      </c>
+      <c r="AO18" s="3">
+        <f>R18/$AC$4</f>
+        <v>-89.028541503011255</v>
+      </c>
+      <c r="AQ18" s="3">
+        <f>Z18-AN18</f>
+        <v>1.3132143250501827E-2</v>
+      </c>
+      <c r="AR18" s="3">
+        <f>AA18-AO18</f>
+        <v>-0.97145849698874542</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="20"/>
+        <v>2.6264286501003653E-2</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="21"/>
+        <v>1.079398329987495</v>
+      </c>
+      <c r="AV18">
+        <v>47.671092057736239</v>
+      </c>
+      <c r="AW18">
         <f t="shared" si="10"/>
-        <v>-1066.262524194344</v>
+        <v>-89.106139416814401</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="11"/>
+        <v>2.3289079422637613</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="12"/>
+        <v>-0.89386058318559947</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="22"/>
+        <v>4.6578158845275226</v>
+      </c>
+      <c r="BB18">
+        <f t="shared" si="13"/>
+        <v>0.99317842576177717</v>
+      </c>
+      <c r="BD18" s="3">
+        <v>49.986867856749498</v>
+      </c>
+      <c r="BE18">
+        <f t="shared" si="14"/>
+        <v>-90.578170261351829</v>
+      </c>
+      <c r="BG18" s="3">
+        <f t="shared" si="15"/>
+        <v>1.3132143250501827E-2</v>
+      </c>
+      <c r="BH18" s="3">
+        <f t="shared" si="16"/>
+        <v>0.57817026135182914</v>
+      </c>
+      <c r="BI18">
+        <f t="shared" si="23"/>
+        <v>2.6264286501003653E-2</v>
+      </c>
+      <c r="BJ18">
+        <f t="shared" si="17"/>
+        <v>-0.64241140150203235</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="20" customHeight="1">
+    <row r="19" spans="1:62" ht="20" customHeight="1">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -14789,30 +19393,100 @@
       <c r="AD19" s="9"/>
       <c r="AF19">
         <f t="shared" si="6"/>
-        <v>-590.15499999999997</v>
+        <v>47.69933322601689</v>
       </c>
       <c r="AG19">
         <f t="shared" si="7"/>
-        <v>-1316.2820000000002</v>
+        <v>-108.77861532204598</v>
       </c>
       <c r="AI19" s="3">
         <f t="shared" si="8"/>
-        <v>-590.33333333333337</v>
-      </c>
-      <c r="AJ19">
-        <f>SIN((-$AD$4/360)*2*PI())*AI19+R19</f>
-        <v>-1308.1060013911037</v>
-      </c>
-      <c r="AL19" s="3">
+        <v>2.3006667739831101</v>
+      </c>
+      <c r="AJ19" s="3">
         <f t="shared" si="9"/>
-        <v>-563</v>
-      </c>
-      <c r="AM19">
+        <v>-1.2213846779540205</v>
+      </c>
+      <c r="AK19" s="15">
+        <f t="shared" si="18"/>
+        <v>4.6013335479662203</v>
+      </c>
+      <c r="AL19" s="15">
+        <f t="shared" si="19"/>
+        <v>1.1103497072309276</v>
+      </c>
+      <c r="AN19" s="3">
+        <f>-Q19/$AB$4</f>
+        <v>50.015109025030149</v>
+      </c>
+      <c r="AO19" s="3">
+        <f>R19/$AC$4</f>
+        <v>-109.00146523819869</v>
+      </c>
+      <c r="AQ19" s="3">
+        <f>Z19-AN19</f>
+        <v>-1.5109025030149326E-2</v>
+      </c>
+      <c r="AR19" s="3">
+        <f>AA19-AO19</f>
+        <v>-0.9985347618013094</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="20"/>
+        <v>-3.0218050060298651E-2</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="21"/>
+        <v>0.90775887436482661</v>
+      </c>
+      <c r="AV19">
+        <v>47.69933322601689</v>
+      </c>
+      <c r="AW19">
         <f t="shared" si="10"/>
-        <v>-1305.2646544416946</v>
+        <v>-109.07924114242242</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="11"/>
+        <v>2.3006667739831101</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="12"/>
+        <v>-0.92075885757758158</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" si="22"/>
+        <v>4.6013335479662203</v>
+      </c>
+      <c r="BB19">
+        <f t="shared" si="13"/>
+        <v>0.8370535068887105</v>
+      </c>
+      <c r="BD19" s="3">
+        <v>50.015109025030149</v>
+      </c>
+      <c r="BE19">
+        <f t="shared" si="14"/>
+        <v>-110.82726836854152</v>
+      </c>
+      <c r="BG19" s="3">
+        <f t="shared" si="15"/>
+        <v>-1.5109025030149326E-2</v>
+      </c>
+      <c r="BH19" s="3">
+        <f t="shared" si="16"/>
+        <v>0.82726836854152452</v>
+      </c>
+      <c r="BI19">
+        <f t="shared" si="23"/>
+        <v>-3.0218050060298651E-2</v>
+      </c>
+      <c r="BJ19">
+        <f t="shared" si="17"/>
+        <v>-0.75206215321956771</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="20" customHeight="1">
+    <row r="20" spans="1:62" ht="20" customHeight="1">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -14887,30 +19561,100 @@
       <c r="AD20" s="9"/>
       <c r="AF20">
         <f t="shared" si="6"/>
-        <v>-354.09300000000002</v>
+        <v>27.81755075643969</v>
       </c>
       <c r="AG20">
         <f t="shared" si="7"/>
-        <v>-1316.2820000000002</v>
+        <v>-108.97360899867961</v>
       </c>
       <c r="AI20" s="3">
         <f t="shared" si="8"/>
-        <v>-354.33333333333331</v>
-      </c>
-      <c r="AJ20">
-        <f>SIN((-$AD$4/360)*2*PI())*AI20+R20</f>
-        <v>-1308.5977862669358</v>
-      </c>
-      <c r="AL20" s="3">
+        <v>2.1824492435603098</v>
+      </c>
+      <c r="AJ20" s="3">
         <f t="shared" si="9"/>
-        <v>-328.33333333333331</v>
-      </c>
-      <c r="AM20">
+        <v>-1.0263910013203912</v>
+      </c>
+      <c r="AK20" s="15">
+        <f t="shared" si="18"/>
+        <v>7.2748308118676999</v>
+      </c>
+      <c r="AL20" s="15">
+        <f t="shared" si="19"/>
+        <v>0.93308272847308282</v>
+      </c>
+      <c r="AN20" s="3">
+        <f>-Q20/$AB$4</f>
+        <v>30.020361882330345</v>
+      </c>
+      <c r="AO20" s="3">
+        <f>R20/$AC$4</f>
+        <v>-109.16860267531324</v>
+      </c>
+      <c r="AQ20" s="3">
+        <f>Z20-AN20</f>
+        <v>-2.0361882330345082E-2</v>
+      </c>
+      <c r="AR20" s="3">
+        <f>AA20-AO20</f>
+        <v>-0.83139732468676186</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="20"/>
+        <v>-6.7872941101150275E-2</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="21"/>
+        <v>0.75581574971523802</v>
+      </c>
+      <c r="AV20">
+        <v>27.81755075643969</v>
+      </c>
+      <c r="AW20">
         <f t="shared" si="10"/>
-        <v>-1306.098293640262</v>
+        <v>-109.14892956296072</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="11"/>
+        <v>2.1824492435603098</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" si="12"/>
+        <v>-0.85107043703928298</v>
+      </c>
+      <c r="BA20">
+        <f t="shared" si="22"/>
+        <v>7.2748308118676999</v>
+      </c>
+      <c r="BB20">
+        <f t="shared" si="13"/>
+        <v>0.77370039730843898</v>
+      </c>
+      <c r="BD20" s="3">
+        <v>30.020361882330345</v>
+      </c>
+      <c r="BE20">
+        <f t="shared" si="14"/>
+        <v>-110.86895680366692</v>
+      </c>
+      <c r="BG20" s="3">
+        <f t="shared" si="15"/>
+        <v>-2.0361882330345082E-2</v>
+      </c>
+      <c r="BH20" s="3">
+        <f t="shared" si="16"/>
+        <v>0.86895680366691863</v>
+      </c>
+      <c r="BI20">
+        <f t="shared" si="23"/>
+        <v>-6.7872941101150275E-2</v>
+      </c>
+      <c r="BJ20">
+        <f t="shared" si="17"/>
+        <v>-0.78996073060628957</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="20" customHeight="1">
+    <row r="21" spans="1:62" ht="20" customHeight="1">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -14985,30 +19729,100 @@
       <c r="AD21" s="9"/>
       <c r="AF21">
         <f t="shared" si="6"/>
-        <v>-354.09300000000002</v>
+        <v>27.845791924720341</v>
       </c>
       <c r="AG21">
         <f t="shared" si="7"/>
-        <v>-1076.9580000000001</v>
+        <v>-89.056397742530351</v>
       </c>
       <c r="AI21" s="3">
         <f t="shared" si="8"/>
-        <v>-354.33333333333331</v>
-      </c>
-      <c r="AJ21">
-        <f>SIN((-$AD$4/360)*2*PI())*AI21+R21</f>
-        <v>-1070.2644529336026</v>
-      </c>
-      <c r="AL21" s="3">
+        <v>2.1542080752796586</v>
+      </c>
+      <c r="AJ21" s="3">
         <f t="shared" si="9"/>
-        <v>-328.66666666666669</v>
-      </c>
-      <c r="AM21">
+        <v>-0.94360225746964943</v>
+      </c>
+      <c r="AK21" s="15">
+        <f t="shared" si="18"/>
+        <v>7.1806935842655291</v>
+      </c>
+      <c r="AL21" s="15">
+        <f t="shared" si="19"/>
+        <v>1.048446952744055</v>
+      </c>
+      <c r="AN21" s="3">
+        <f>-Q21/$AB$4</f>
+        <v>30.020361882330345</v>
+      </c>
+      <c r="AO21" s="3">
+        <f>R21/$AC$4</f>
+        <v>-89.25139141916398</v>
+      </c>
+      <c r="AQ21" s="3">
+        <f>Z21-AN21</f>
+        <v>-2.0361882330345082E-2</v>
+      </c>
+      <c r="AR21" s="3">
+        <f>AA21-AO21</f>
+        <v>-0.74860858083602011</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="20"/>
+        <v>-6.7872941101150275E-2</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="21"/>
+        <v>0.83178731204002232</v>
+      </c>
+      <c r="AV21">
+        <v>27.845791924720341</v>
+      </c>
+      <c r="AW21">
         <f t="shared" si="10"/>
-        <v>-1067.7670905542791</v>
+        <v>-89.231896297232041</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="11"/>
+        <v>2.1542080752796586</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="12"/>
+        <v>-0.76810370276795936</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" si="22"/>
+        <v>7.1806935842655291</v>
+      </c>
+      <c r="BB21">
+        <f t="shared" si="13"/>
+        <v>0.85344855863106595</v>
+      </c>
+      <c r="BD21" s="3">
+        <v>30.020361882330345</v>
+      </c>
+      <c r="BE21">
+        <f t="shared" si="14"/>
+        <v>-90.676521483002588</v>
+      </c>
+      <c r="BG21" s="3">
+        <f t="shared" si="15"/>
+        <v>-2.0361882330345082E-2</v>
+      </c>
+      <c r="BH21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.6765214830025883</v>
+      </c>
+      <c r="BI21">
+        <f t="shared" si="23"/>
+        <v>-6.7872941101150275E-2</v>
+      </c>
+      <c r="BJ21">
+        <f t="shared" si="17"/>
+        <v>-0.75169053666954255</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="20" customHeight="1">
+    <row r="22" spans="1:62" ht="20" customHeight="1">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -15083,30 +19897,96 @@
       <c r="AD22" s="9"/>
       <c r="AF22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.1180876210487076</v>
       </c>
       <c r="AG22">
         <f t="shared" si="7"/>
-        <v>-1076.9580000000001</v>
+        <v>-89.25139141916398</v>
       </c>
       <c r="AI22" s="3">
         <f t="shared" si="8"/>
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="AJ22">
-        <f>SIN((-$AD$4/360)*2*PI())*AI22+R22</f>
-        <v>-1070.3375938280342</v>
-      </c>
-      <c r="AL22" s="3">
+        <v>2.1180876210487076</v>
+      </c>
+      <c r="AJ22" s="3">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="AM22">
+        <v>-0.74860858083602011</v>
+      </c>
+      <c r="AK22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL22" s="15">
+        <f t="shared" si="19"/>
+        <v>0.83178731204002232</v>
+      </c>
+      <c r="AN22" s="3">
+        <f>-Q22/$AB$4</f>
+        <v>5.6482336561298863E-2</v>
+      </c>
+      <c r="AO22" s="3">
+        <f>R22/$AC$4</f>
+        <v>-89.446385095797595</v>
+      </c>
+      <c r="AQ22" s="3">
+        <f>Z22-AN22</f>
+        <v>-5.6482336561298863E-2</v>
+      </c>
+      <c r="AR22" s="3">
+        <f>AA22-AO22</f>
+        <v>-0.553614904202405</v>
+      </c>
+      <c r="AS22" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="21"/>
+        <v>0.61512767133600554</v>
+      </c>
+      <c r="AV22">
+        <v>-2.1180876210487076</v>
+      </c>
+      <c r="AW22">
         <f t="shared" si="10"/>
-        <v>-1067.8402314487109</v>
+        <v>-89.238042137619729</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="11"/>
+        <v>2.1180876210487076</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="12"/>
+        <v>-0.76195786238027097</v>
+      </c>
+      <c r="BA22" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB22">
+        <f t="shared" si="13"/>
+        <v>0.84661984708918991</v>
+      </c>
+      <c r="BD22" s="3">
+        <v>5.6482336561298863E-2</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" si="14"/>
+        <v>-90.682752249093454</v>
+      </c>
+      <c r="BG22" s="3">
+        <f t="shared" si="15"/>
+        <v>-5.6482336561298863E-2</v>
+      </c>
+      <c r="BH22" s="3">
+        <f t="shared" si="16"/>
+        <v>0.68275224909345411</v>
+      </c>
+      <c r="BI22" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ22">
+        <f t="shared" si="17"/>
+        <v>-0.75861361010383788</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="20" customHeight="1">
+    <row r="23" spans="1:62" ht="20" customHeight="1">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -15181,30 +20061,96 @@
       <c r="AD23" s="9"/>
       <c r="AF23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.1180876210487076</v>
       </c>
       <c r="AG23">
         <f t="shared" si="7"/>
-        <v>-927.3805000000001</v>
+        <v>-76.883221072688073</v>
       </c>
       <c r="AI23" s="3">
         <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="AJ23">
-        <f>SIN((-$AD$4/360)*2*PI())*AI23+R23</f>
-        <v>-921.33972407538488</v>
-      </c>
-      <c r="AL23" s="3">
+        <v>2.1180876210487076</v>
+      </c>
+      <c r="AJ23" s="3">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="AM23">
+        <v>-0.61677892731192685</v>
+      </c>
+      <c r="AK23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL23" s="15">
+        <f t="shared" si="19"/>
+        <v>0.79584377717667976</v>
+      </c>
+      <c r="AN23" s="3">
+        <f>-Q23/$AB$4</f>
+        <v>8.4723504841948294E-2</v>
+      </c>
+      <c r="AO23" s="3">
+        <f>R23/$AC$4</f>
+        <v>-76.994646030764429</v>
+      </c>
+      <c r="AQ23" s="3">
+        <f>Z23-AN23</f>
+        <v>-8.4723504841948294E-2</v>
+      </c>
+      <c r="AR23" s="3">
+        <f>AA23-AO23</f>
+        <v>-0.5053539692355713</v>
+      </c>
+      <c r="AS23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT23">
+        <f>AR23/AA23%</f>
+        <v>0.65206963772331783</v>
+      </c>
+      <c r="AV23">
+        <v>-2.1180876210487076</v>
+      </c>
+      <c r="AW23">
         <f t="shared" si="10"/>
-        <v>-919.84023144871105</v>
+        <v>-76.869871791143822</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="11"/>
+        <v>2.1180876210487076</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="12"/>
+        <v>-0.63012820885617771</v>
+      </c>
+      <c r="BA23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB23">
+        <f t="shared" si="13"/>
+        <v>0.81306865658861638</v>
+      </c>
+      <c r="BD23" s="3">
+        <v>8.4723504841948294E-2</v>
+      </c>
+      <c r="BE23">
+        <f t="shared" si="14"/>
+        <v>-78.059130477607226</v>
+      </c>
+      <c r="BG23" s="3">
+        <f t="shared" si="15"/>
+        <v>-8.4723504841948294E-2</v>
+      </c>
+      <c r="BH23" s="3">
+        <f t="shared" si="16"/>
+        <v>0.55913047760722634</v>
+      </c>
+      <c r="BI23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ23">
+        <f t="shared" si="17"/>
+        <v>-0.72145868078351783</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="20" customHeight="1">
+    <row r="24" spans="1:62" ht="20" customHeight="1">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -15279,30 +20225,100 @@
       <c r="AD24" s="9"/>
       <c r="AF24">
         <f t="shared" si="6"/>
-        <v>-885.23250000000007</v>
+        <v>72.636284817830344</v>
       </c>
       <c r="AG24">
         <f t="shared" si="7"/>
-        <v>-688.05650000000003</v>
+        <v>-56.353172547118831</v>
       </c>
       <c r="AI24" s="3">
         <f t="shared" si="8"/>
-        <v>-886.33333333333337</v>
-      </c>
-      <c r="AJ24">
-        <f>SIN((-$AD$4/360)*2*PI())*AI24+R24</f>
-        <v>-683.33099437169858</v>
-      </c>
-      <c r="AL24" s="3">
+        <v>2.3637151821696563</v>
+      </c>
+      <c r="AJ24" s="3">
         <f t="shared" si="9"/>
-        <v>-857.33333333333337</v>
-      </c>
-      <c r="AM24">
+        <v>-1.1468274528811691</v>
+      </c>
+      <c r="AK24" s="15">
+        <f t="shared" si="18"/>
+        <v>3.151620242892875</v>
+      </c>
+      <c r="AL24" s="15">
+        <f t="shared" si="19"/>
+        <v>1.9944825267498594</v>
+      </c>
+      <c r="AN24" s="3">
+        <f>-Q24/$AB$4</f>
+        <v>75.093266458246845</v>
+      </c>
+      <c r="AO24" s="3">
+        <f>R24/$AC$4</f>
+        <v>-56.63173494230972</v>
+      </c>
+      <c r="AQ24" s="3">
+        <f>Z24-AN24</f>
+        <v>-9.3266458246844763E-2</v>
+      </c>
+      <c r="AR24" s="3">
+        <f>AA24-AO24</f>
+        <v>-0.86826505769028017</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="20"/>
+        <v>-0.12435527766245968</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="21"/>
+        <v>1.5100261872874439</v>
+      </c>
+      <c r="AV24">
+        <v>72.636284817830344</v>
+      </c>
+      <c r="AW24">
         <f t="shared" si="10"/>
-        <v>-679.81232951887011</v>
+        <v>-56.810963908876204</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="11"/>
+        <v>2.3637151821696563</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="12"/>
+        <v>-0.68903609112379627</v>
+      </c>
+      <c r="BA24">
+        <f t="shared" si="22"/>
+        <v>3.151620242892875</v>
+      </c>
+      <c r="BB24">
+        <f t="shared" si="13"/>
+        <v>1.1983236367370371</v>
+      </c>
+      <c r="BD24" s="3">
+        <v>75.093266458246845</v>
+      </c>
+      <c r="BE24">
+        <f t="shared" si="14"/>
+        <v>-57.894111569010924</v>
+      </c>
+      <c r="BG24" s="3">
+        <f t="shared" si="15"/>
+        <v>-9.3266458246844763E-2</v>
+      </c>
+      <c r="BH24" s="3">
+        <f t="shared" si="16"/>
+        <v>0.39411156901092426</v>
+      </c>
+      <c r="BI24">
+        <f t="shared" si="23"/>
+        <v>-0.12435527766245968</v>
+      </c>
+      <c r="BJ24">
+        <f t="shared" si="17"/>
+        <v>-0.6854114243668249</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="20" customHeight="1">
+    <row r="25" spans="1:62" ht="20" customHeight="1">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -15377,30 +20393,100 @@
       <c r="AD25" s="9"/>
       <c r="AF25">
         <f t="shared" si="6"/>
-        <v>354.09300000000002</v>
+        <v>-32.13844950337905</v>
       </c>
       <c r="AG25">
         <f t="shared" si="7"/>
-        <v>-299.15500000000003</v>
+        <v>-25.18204052525725</v>
       </c>
       <c r="AI25" s="3">
         <f t="shared" si="8"/>
-        <v>352.66666666666669</v>
-      </c>
-      <c r="AJ25">
-        <f>SIN((-$AD$4/360)*2*PI())*AI25+R25</f>
-        <v>-303.41286496981678</v>
-      </c>
-      <c r="AL25" s="3">
+        <v>2.13844950337905</v>
+      </c>
+      <c r="AJ25" s="3">
         <f t="shared" si="9"/>
-        <v>379.33333333333331</v>
-      </c>
-      <c r="AM25">
+        <v>0.1820405252572499</v>
+      </c>
+      <c r="AK25" s="15">
+        <f t="shared" si="18"/>
+        <v>-7.1281650112635004</v>
+      </c>
+      <c r="AL25" s="15">
+        <f t="shared" si="19"/>
+        <v>-0.72816210102899959</v>
+      </c>
+      <c r="AN25" s="3">
+        <f>-Q25/$AB$4</f>
+        <v>-29.8791560409271</v>
+      </c>
+      <c r="AO25" s="3">
+        <f>R25/$AC$4</f>
+        <v>-25.54417163900542</v>
+      </c>
+      <c r="AQ25" s="3">
+        <f>Z25-AN25</f>
+        <v>-0.12084395907290002</v>
+      </c>
+      <c r="AR25" s="3">
+        <f>AA25-AO25</f>
+        <v>0.54417163900541965</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="20"/>
+        <v>0.40281319690966677</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="21"/>
+        <v>-2.1766865560216786</v>
+      </c>
+      <c r="AV25">
+        <v>-32.13844950337905</v>
+      </c>
+      <c r="AW25">
         <f t="shared" si="10"/>
-        <v>-298.90911184844185</v>
+        <v>-24.979487426625877</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="11"/>
+        <v>2.13844950337905</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="12"/>
+        <v>-2.0512573374123377E-2</v>
+      </c>
+      <c r="BA25">
+        <f t="shared" si="22"/>
+        <v>-7.1281650112635004</v>
+      </c>
+      <c r="BB25">
+        <f t="shared" si="13"/>
+        <v>8.2050293496493509E-2</v>
+      </c>
+      <c r="BD25" s="3">
+        <v>-29.8791560409271</v>
+      </c>
+      <c r="BE25">
+        <f t="shared" si="14"/>
+        <v>-25.706235251374046</v>
+      </c>
+      <c r="BG25" s="3">
+        <f t="shared" si="15"/>
+        <v>-0.12084395907290002</v>
+      </c>
+      <c r="BH25" s="3">
+        <f t="shared" si="16"/>
+        <v>0.70623525137404641</v>
+      </c>
+      <c r="BI25">
+        <f t="shared" si="23"/>
+        <v>0.40281319690966677</v>
+      </c>
+      <c r="BJ25">
+        <f t="shared" si="17"/>
+        <v>-2.8249410054961857</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="20" customHeight="1">
+    <row r="26" spans="1:62" ht="20" customHeight="1">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -15475,30 +20561,96 @@
       <c r="AD26" s="9"/>
       <c r="AF26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.3157757990132533</v>
       </c>
       <c r="AG26">
         <f t="shared" si="7"/>
-        <v>-149.57750000000001</v>
+        <v>-12.479595304552268</v>
       </c>
       <c r="AI26" s="3">
         <f t="shared" si="8"/>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="AJ26">
-        <f>SIN((-$AD$4/360)*2*PI())*AI26+R26</f>
-        <v>-153.66879691401718</v>
-      </c>
-      <c r="AL26" s="3">
+        <v>2.3157757990132533</v>
+      </c>
+      <c r="AJ26" s="3">
         <f t="shared" si="9"/>
-        <v>27.333333333333332</v>
-      </c>
-      <c r="AM26">
+        <v>-2.0404695447732379E-2</v>
+      </c>
+      <c r="AK26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL26" s="15">
+        <f t="shared" si="19"/>
+        <v>0.16323756358185904</v>
+      </c>
+      <c r="AN26" s="3">
+        <f>-Q26/$AB$4</f>
+        <v>2.8241168280649431E-2</v>
+      </c>
+      <c r="AO26" s="3">
+        <f>R26/$AC$4</f>
+        <v>-12.841726418300434</v>
+      </c>
+      <c r="AQ26" s="3">
+        <f>Z26-AN26</f>
+        <v>-2.8241168280649431E-2</v>
+      </c>
+      <c r="AR26" s="3">
+        <f>AA26-AO26</f>
+        <v>0.34172641830043382</v>
+      </c>
+      <c r="AS26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="21"/>
+        <v>-2.7338113464034706</v>
+      </c>
+      <c r="AV26">
+        <v>-2.3157757990132533</v>
+      </c>
+      <c r="AW26">
         <f t="shared" si="10"/>
-        <v>-149.15865305059071</v>
+        <v>-12.46500009006389</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="11"/>
+        <v>2.3157757990132533</v>
+      </c>
+      <c r="AZ26">
+        <f t="shared" si="12"/>
+        <v>-3.4999909936109574E-2</v>
+      </c>
+      <c r="BA26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB26">
+        <f t="shared" si="13"/>
+        <v>0.2799992794888766</v>
+      </c>
+      <c r="BD26" s="3">
+        <v>2.8241168280649431E-2</v>
+      </c>
+      <c r="BE26">
+        <f t="shared" si="14"/>
+        <v>-13.019359027343452</v>
+      </c>
+      <c r="BG26" s="3">
+        <f t="shared" si="15"/>
+        <v>-2.8241168280649431E-2</v>
+      </c>
+      <c r="BH26" s="3">
+        <f t="shared" si="16"/>
+        <v>0.51935902734345163</v>
+      </c>
+      <c r="BI26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ26">
+        <f t="shared" si="17"/>
+        <v>-4.154872218747613</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="20" customHeight="1">
+    <row r="27" spans="1:62" ht="20" customHeight="1">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -15573,35 +20725,110 @@
       <c r="AD27" s="9"/>
       <c r="AF27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.3440169672939031</v>
       </c>
       <c r="AG27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-5.5712479038179753E-2</v>
       </c>
       <c r="AI27" s="3">
         <f t="shared" si="8"/>
+        <v>2.3440169672939031</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f t="shared" si="9"/>
+        <v>5.5712479038179753E-2</v>
+      </c>
+      <c r="AK27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN27" s="3">
+        <f>-Q27/$AB$4</f>
         <v>0</v>
       </c>
-      <c r="AJ27">
-        <f>SIN((-$AD$4/360)*2*PI())*AI27+R27</f>
-        <v>-4.333333333333333</v>
-      </c>
-      <c r="AL27" s="3">
-        <f t="shared" si="9"/>
-        <v>27.666666666666668</v>
-      </c>
-      <c r="AM27">
+      <c r="AO27" s="3">
+        <f>R27/$AC$4</f>
+        <v>-0.36213111374816842</v>
+      </c>
+      <c r="AQ27" s="3">
+        <f>Z27-AN27</f>
+        <v>0</v>
+      </c>
+      <c r="AR27" s="3">
+        <f>AA27-AO27</f>
+        <v>0.36213111374816842</v>
+      </c>
+      <c r="AS27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV27">
+        <v>-2.3440169672939031</v>
+      </c>
+      <c r="AW27">
         <f t="shared" si="10"/>
-        <v>-0.48985613657352883</v>
+        <v>-4.0939274129213096E-2</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="11"/>
+        <v>2.3440169672939031</v>
+      </c>
+      <c r="AZ27">
+        <f t="shared" si="12"/>
+        <v>4.0939274129213096E-2</v>
+      </c>
+      <c r="BA27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <f t="shared" si="14"/>
+        <v>-0.36713518764844261</v>
+      </c>
+      <c r="BG27" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BH27" s="3">
+        <f t="shared" si="16"/>
+        <v>0.36713518764844261</v>
+      </c>
+      <c r="BI27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ27" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="22">
+    <mergeCell ref="BD1:BJ2"/>
+    <mergeCell ref="BD3:BE3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AF1:AL2"/>
+    <mergeCell ref="AN1:AT2"/>
+    <mergeCell ref="AV1:BB2"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AK3:AL3"/>
     <mergeCell ref="AD4:AD27"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="T1:W1"/>
@@ -15611,6 +20838,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFF0000 VERTRAULICH</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -15620,28 +20850,28 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -15657,512 +20887,419 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>49</v>
+      <c r="A4" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="3">
-        <f>Haupt!AF4-Haupt!H4</f>
-        <v>-7.1781666666668116</v>
+        <v>0.60815943833966912</v>
       </c>
       <c r="C4" s="3">
-        <f>Haupt!AG4-Haupt!I4</f>
-        <v>-22.652666666666676</v>
-      </c>
-      <c r="E4">
-        <f>Haupt!AF4-Haupt!Q4</f>
-        <v>-0.84483333333332666</v>
-      </c>
-      <c r="F4">
-        <f>Haupt!AG4-Haupt!R4</f>
-        <v>-30.319333333333304</v>
+        <v>-1.8930543252383139</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7.1577241007304296E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-2.533747834177376</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <f>Haupt!AF5-Haupt!H5</f>
-        <v>-1.3333333333333333</v>
+        <v>0.11296467312259773</v>
       </c>
       <c r="C5" s="3">
-        <f>Haupt!AG5-Haupt!I5</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f>Haupt!AF5-Haupt!Q5</f>
+        <v>8.3568718557269633E-2</v>
+      </c>
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5">
-        <f>Haupt!AG5-Haupt!R5</f>
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <f>Haupt!AF6-Haupt!H6</f>
-        <v>-12.883666666666727</v>
+        <v>1.091549395215381</v>
       </c>
       <c r="C6" s="3">
-        <f>Haupt!AG6-Haupt!I6</f>
-        <v>-6.0326666666666142</v>
-      </c>
-      <c r="E6">
-        <f>Haupt!AF6-Haupt!Q6</f>
-        <v>0.116333333333273</v>
-      </c>
-      <c r="F6">
-        <f>Haupt!AG6-Haupt!R6</f>
-        <v>-8.6993333333333567</v>
+        <v>-0.50414222281648335</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-9.8561677299500161E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-0.72699213896920867</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <f>Haupt!AF7-Haupt!H7</f>
-        <v>-25.767333333333454</v>
+        <v>2.1830987904307619</v>
       </c>
       <c r="C7" s="3">
-        <f>Haupt!AG7-Haupt!I7</f>
-        <v>-16</v>
-      </c>
-      <c r="E7">
-        <f>Haupt!AF7-Haupt!Q7</f>
-        <v>-1.1006666666669389</v>
-      </c>
-      <c r="F7">
-        <f>Haupt!AG7-Haupt!R7</f>
-        <v>-16.333333333333332</v>
+        <v>-1.3370994969163141</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9.3252337662704576E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1.3649557364354039</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <f>Haupt!AF8-Haupt!H8</f>
-        <v>-26.651000000000295</v>
+        <v>2.2579661275427725</v>
       </c>
       <c r="C8" s="3">
-        <f>Haupt!AG8-Haupt!I8</f>
-        <v>-25.666666666666668</v>
-      </c>
-      <c r="E8">
-        <f>Haupt!AF8-Haupt!Q8</f>
-        <v>-2.9843333333337796</v>
-      </c>
-      <c r="F8">
-        <f>Haupt!AG8-Haupt!R8</f>
-        <v>-23.333333333333332</v>
+        <v>-2.1449304429699207</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.25284317961668989</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-1.9499367663362914</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <f>Haupt!AF9-Haupt!H9</f>
-        <v>-27.31766666666681</v>
+        <v>2.3144484641040606</v>
       </c>
       <c r="C9" s="3">
-        <f>Haupt!AG9-Haupt!I9</f>
-        <v>-23.699333333333357</v>
-      </c>
-      <c r="E9">
-        <f>Haupt!AF9-Haupt!Q9</f>
-        <v>-0.98433333333377959</v>
-      </c>
-      <c r="F9">
-        <f>Haupt!AG9-Haupt!R9</f>
-        <v>-20.365999999999985</v>
+        <v>-1.9805229173282584</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8.3396169932768771E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1.7019605221373553</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <f>Haupt!AF10-Haupt!H10</f>
-        <v>-27.868000000000393</v>
+        <v>2.3610746329354129</v>
       </c>
       <c r="C10" s="3">
-        <f>Haupt!AG10-Haupt!I10</f>
-        <v>-32.365999999999985</v>
-      </c>
-      <c r="E10">
-        <f>Haupt!AF10-Haupt!Q10</f>
-        <v>-3.2013333333338778</v>
-      </c>
-      <c r="F10">
-        <f>Haupt!AG10-Haupt!R10</f>
-        <v>-28.365999999999985</v>
+        <v>-2.7047851448245837</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.27122818016738393</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-2.3705102705955028</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <f>Haupt!AF11-Haupt!H11</f>
-        <v>-28.868000000000393</v>
+        <v>2.4457981377773876</v>
       </c>
       <c r="C11" s="3">
-        <f>Haupt!AG11-Haupt!I11</f>
-        <v>-39.291333333333341</v>
-      </c>
-      <c r="E11">
-        <f>Haupt!AF11-Haupt!Q11</f>
-        <v>-3.2013333333338778</v>
-      </c>
-      <c r="F11">
-        <f>Haupt!AG11-Haupt!R11</f>
-        <v>-34.291333333333341</v>
+        <v>-3.2835263770732013</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.27122818016738393</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-2.8656827842868466</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <f>Haupt!AF12-Haupt!H12</f>
-        <v>-29.434000000000196</v>
+        <v>2.4937516415179175</v>
       </c>
       <c r="C12" s="3">
-        <f>Haupt!AG12-Haupt!I12</f>
-        <v>-22.624666666666826</v>
-      </c>
-      <c r="E12">
-        <f>Haupt!AF12-Haupt!Q12</f>
-        <v>-1.767333333333454</v>
-      </c>
-      <c r="F12">
-        <f>Haupt!AG12-Haupt!R12</f>
-        <v>-21.291333333333341</v>
+        <v>-1.8907144011187142</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.14973467422399267</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-1.7792894430423445</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3">
-        <f>Haupt!AF13-Haupt!H13</f>
-        <v>-29.100666666666939</v>
+        <v>2.4655104732372592</v>
       </c>
       <c r="C13" s="3">
-        <f>Haupt!AG13-Haupt!I13</f>
-        <v>-23.624666666666826</v>
-      </c>
-      <c r="E13">
-        <f>Haupt!AF13-Haupt!Q13</f>
-        <v>-1.1006666666669389</v>
-      </c>
-      <c r="F13">
-        <f>Haupt!AG13-Haupt!R13</f>
-        <v>-21.958000000000084</v>
+        <v>-1.974283119675988</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9.3252337662704576E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-1.8350019220805365</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3">
-        <f>Haupt!AF14-Haupt!H14</f>
-        <v>-29.612333333333254</v>
+        <v>2.5088606665480455</v>
       </c>
       <c r="C14" s="3">
-        <f>Haupt!AG14-Haupt!I14</f>
-        <v>-18.624666666666826</v>
-      </c>
-      <c r="E14">
-        <f>Haupt!AF14-Haupt!Q14</f>
-        <v>-0.6123333333332539</v>
-      </c>
-      <c r="F14">
-        <f>Haupt!AG14-Haupt!R14</f>
-        <v>-16.958000000000084</v>
+        <v>-1.5564395268896334</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5.1879026131544492E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-1.4171583292941818</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <f>Haupt!AF15-Haupt!H15</f>
-        <v>-28.612333333333254</v>
+        <v>2.4241371617060992</v>
       </c>
       <c r="C15" s="3">
-        <f>Haupt!AG15-Haupt!I15</f>
-        <v>-18.61533333333341</v>
-      </c>
-      <c r="E15">
-        <f>Haupt!AF15-Haupt!Q15</f>
-        <v>-0.94566666666673882</v>
-      </c>
-      <c r="F15">
-        <f>Haupt!AG15-Haupt!R15</f>
-        <v>-16.61533333333341</v>
+        <v>-1.5556595521830872</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8.0120194412216961E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-1.3885221150685538</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3">
-        <f>Haupt!AF16-Haupt!H16</f>
-        <v>-27.550333333333469</v>
+        <v>2.3341607995639606</v>
       </c>
       <c r="C16" s="3">
-        <f>Haupt!AG16-Haupt!I16</f>
-        <v>-16.61533333333341</v>
-      </c>
-      <c r="E16">
-        <f>Haupt!AF16-Haupt!Q16</f>
-        <v>-0.55033333333346945</v>
-      </c>
-      <c r="F16">
-        <f>Haupt!AG16-Haupt!R16</f>
-        <v>-14.61533333333341</v>
+        <v>-1.3885221150685538</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.6626168831352288E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-1.2213846779540205</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3">
-        <f>Haupt!AF17-Haupt!H17</f>
-        <v>-28.217000000000098</v>
+        <v>2.3906431361252629</v>
       </c>
       <c r="C17" s="3">
-        <f>Haupt!AG17-Haupt!I17</f>
-        <v>-15.958000000000084</v>
-      </c>
-      <c r="E17">
-        <f>Haupt!AF17-Haupt!Q17</f>
-        <v>-0.55033333333346945</v>
-      </c>
-      <c r="F17">
-        <f>Haupt!AG17-Haupt!R17</f>
-        <v>-13.291333333333341</v>
+        <v>-1.3335896107369081</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.6626168831352288E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-1.1107396945841828</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="3">
-        <f>Haupt!AF18-Haupt!H18</f>
-        <v>-27.488333333333344</v>
+        <v>2.3289079422637613</v>
       </c>
       <c r="C18" s="3">
-        <f>Haupt!AG18-Haupt!I18</f>
-        <v>-14.291333333333341</v>
-      </c>
-      <c r="E18">
-        <f>Haupt!AF18-Haupt!Q18</f>
-        <v>-0.15499999999997272</v>
-      </c>
-      <c r="F18">
-        <f>Haupt!AG18-Haupt!R18</f>
-        <v>-11.624666666666826</v>
+        <v>-1.1943084131414565</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.3132143250501827E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-0.97145849698874542</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="3">
-        <f>Haupt!AF19-Haupt!H19</f>
-        <v>-27.154999999999973</v>
+        <v>2.3006667739831101</v>
       </c>
       <c r="C19" s="3">
-        <f>Haupt!AG19-Haupt!I19</f>
-        <v>-14.61533333333341</v>
-      </c>
-      <c r="E19">
-        <f>Haupt!AF19-Haupt!Q19</f>
-        <v>0.17833333333339851</v>
-      </c>
-      <c r="F19">
-        <f>Haupt!AG19-Haupt!R19</f>
-        <v>-11.948666666666895</v>
+        <v>-1.2213846779540205</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-1.5109025030149326E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-0.9985347618013094</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="3">
-        <f>Haupt!AF20-Haupt!H20</f>
-        <v>-25.759666666666703</v>
+        <v>2.1824492435603098</v>
       </c>
       <c r="C20" s="3">
-        <f>Haupt!AG20-Haupt!I20</f>
-        <v>-12.282000000000153</v>
-      </c>
-      <c r="E20">
-        <f>Haupt!AF20-Haupt!Q20</f>
-        <v>0.24033333333329665</v>
-      </c>
-      <c r="F20">
-        <f>Haupt!AG20-Haupt!R20</f>
-        <v>-9.9486666666668953</v>
+        <v>-1.0263910013203912</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2.0361882330345082E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-0.83139732468676186</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3">
-        <f>Haupt!AF21-Haupt!H21</f>
-        <v>-25.426333333333332</v>
+        <v>2.1542080752796586</v>
       </c>
       <c r="C21" s="3">
-        <f>Haupt!AG21-Haupt!I21</f>
-        <v>-11.291333333333341</v>
-      </c>
-      <c r="E21">
-        <f>Haupt!AF21-Haupt!Q21</f>
-        <v>0.24033333333329665</v>
-      </c>
-      <c r="F21">
-        <f>Haupt!AG21-Haupt!R21</f>
-        <v>-8.9580000000000837</v>
+        <v>-0.94360225746964943</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2.0361882330345082E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-0.74860858083602011</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="3">
-        <f>Haupt!AF22-Haupt!H22</f>
-        <v>-25</v>
+        <v>2.1180876210487076</v>
       </c>
       <c r="C22" s="3">
-        <f>Haupt!AG22-Haupt!I22</f>
-        <v>-8.9580000000000837</v>
-      </c>
-      <c r="E22">
-        <f>Haupt!AF22-Haupt!Q22</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F22">
-        <f>Haupt!AG22-Haupt!R22</f>
-        <v>-6.6246666666668261</v>
+        <v>-0.74860858083602011</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-5.6482336561298863E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-0.553614904202405</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="3">
-        <f>Haupt!AF23-Haupt!H23</f>
-        <v>-25</v>
+        <v>2.1180876210487076</v>
       </c>
       <c r="C23" s="3">
-        <f>Haupt!AG23-Haupt!I23</f>
-        <v>-7.3805000000000973</v>
-      </c>
-      <c r="E23">
-        <f>Haupt!AF23-Haupt!Q23</f>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f>Haupt!AG23-Haupt!R23</f>
-        <v>-6.0471666666667261</v>
+        <v>-0.61677892731192685</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8.4723504841948294E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-0.5053539692355713</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="3">
-        <f>Haupt!AF24-Haupt!H24</f>
-        <v>-27.899166666666702</v>
+        <v>2.3637151821696563</v>
       </c>
       <c r="C24" s="3">
-        <f>Haupt!AG24-Haupt!I24</f>
-        <v>-13.723166666666657</v>
-      </c>
-      <c r="E24">
-        <f>Haupt!AF24-Haupt!Q24</f>
-        <v>1.1008333333332985</v>
-      </c>
-      <c r="F24">
-        <f>Haupt!AG24-Haupt!R24</f>
-        <v>-10.389833333333399</v>
+        <v>-1.1468274528811691</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-9.3266458246844763E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-0.86826505769028017</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="3">
-        <f>Haupt!AF25-Haupt!H25</f>
-        <v>-25.240333333333297</v>
+        <v>2.13844950337905</v>
       </c>
       <c r="C25" s="3">
-        <f>Haupt!AG25-Haupt!I25</f>
-        <v>2.1783333333332848</v>
-      </c>
-      <c r="E25">
-        <f>Haupt!AF25-Haupt!Q25</f>
-        <v>1.4263333333333321</v>
-      </c>
-      <c r="F25">
-        <f>Haupt!AG25-Haupt!R25</f>
-        <v>6.5116666666666561</v>
+        <v>0.1820405252572499</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-0.12084395907290002</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.54417163900541965</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="3">
-        <f>Haupt!AF26-Haupt!H26</f>
-        <v>-27.333333333333332</v>
+        <v>2.3157757990132533</v>
       </c>
       <c r="C26" s="3">
-        <f>Haupt!AG26-Haupt!I26</f>
-        <v>-0.24416666666667197</v>
-      </c>
-      <c r="E26">
-        <f>Haupt!AF26-Haupt!Q26</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F26">
-        <f>Haupt!AG26-Haupt!R26</f>
-        <v>4.0891666666666424</v>
+        <v>-2.0404695447732379E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2.8241168280649431E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.34172641830043382</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="3">
-        <f>Haupt!AF27-Haupt!H27</f>
-        <v>-27.666666666666668</v>
+        <v>2.3440169672939031</v>
       </c>
       <c r="C27" s="3">
-        <f>Haupt!AG27-Haupt!I27</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E27">
-        <f>Haupt!AF27-Haupt!Q27</f>
+        <v>5.5712479038179753E-2</v>
+      </c>
+      <c r="E27" s="3">
         <v>0</v>
       </c>
-      <c r="F27">
-        <f>Haupt!AG27-Haupt!R27</f>
-        <v>4.333333333333333</v>
+      <c r="F27" s="3">
+        <v>0.36213111374816842</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFF0000 VERTRAULICH</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -16172,23 +21309,23 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -16205,516 +21342,1214 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="3">
-        <f>Haupt!AF4-Haupt!H4</f>
-        <v>-7.1781666666668116</v>
+        <v>0.60815943833966912</v>
       </c>
       <c r="B4" s="3">
-        <f>Haupt!AG4-Haupt!AM4</f>
-        <v>-10.252496839291325</v>
+        <v>-0.8569720869841575</v>
       </c>
       <c r="D4">
-        <f>Haupt!AF4-Haupt!Q4</f>
-        <v>-0.84483333333332666</v>
+        <v>7.1577241007304337E-2</v>
       </c>
       <c r="E4">
-        <f>Haupt!AG4-Haupt!AJ4</f>
-        <v>-17.878688806298044</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>49</v>
+        <v>-1.1003802851361115</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="3">
-        <f>Haupt!AF5-Haupt!H5</f>
-        <v>-1.3333333333333333</v>
+        <v>0.11296467312259773</v>
       </c>
       <c r="B5" s="3">
-        <f>Haupt!AG5-Haupt!AM5</f>
-        <v>0.9914790105979211</v>
+        <v>8.2856756874909801E-2</v>
       </c>
       <c r="D5">
-        <f>Haupt!AF5-Haupt!Q5</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>Haupt!AG5-Haupt!AJ5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="3">
-        <f>Haupt!AF6-Haupt!H6</f>
-        <v>-12.883666666666727</v>
+        <v>1.091549395215381</v>
       </c>
       <c r="B6" s="3">
-        <f>Haupt!AG6-Haupt!AM6</f>
-        <v>-0.83486313139849244</v>
+        <v>-6.9845596576982416E-2</v>
       </c>
       <c r="D6">
-        <f>Haupt!AF6-Haupt!Q6</f>
-        <v>0.116333333333273</v>
+        <v>-9.8561677299500161E-3</v>
       </c>
       <c r="E6">
-        <f>Haupt!AG6-Haupt!AJ6</f>
-        <v>-3.4184501513949499</v>
-      </c>
-      <c r="F6" s="11" t="s">
+        <v>-1.2569908036500976</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="3">
-        <f>Haupt!AF7-Haupt!H7</f>
-        <v>-25.767333333333454</v>
+        <v>2.1830987904307619</v>
       </c>
       <c r="B7" s="3">
-        <f>Haupt!AG7-Haupt!AM7</f>
-        <v>-5.6043929294637049</v>
+        <v>-0.46850624443731059</v>
       </c>
       <c r="D7">
-        <f>Haupt!AF7-Haupt!Q7</f>
-        <v>-1.1006666666669389</v>
+        <v>9.3252337662704576E-2</v>
       </c>
       <c r="E7">
-        <f>Haupt!AG7-Haupt!AJ7</f>
-        <v>-5.7800879588585783</v>
-      </c>
-      <c r="F7" s="11" t="s">
+        <v>-0.48986812377046496</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="3">
-        <f>Haupt!AF8-Haupt!H8</f>
-        <v>-26.651000000000295</v>
+        <v>2.2579661275427725</v>
       </c>
       <c r="B8" s="3">
-        <f>Haupt!AG8-Haupt!AM8</f>
-        <v>-9.9965671562435148</v>
+        <v>-0.83563290911017685</v>
       </c>
       <c r="D8">
-        <f>Haupt!AF8-Haupt!Q8</f>
-        <v>-2.9843333333337796</v>
+        <v>0.25284317961668989</v>
       </c>
       <c r="E8">
-        <f>Haupt!AG8-Haupt!AJ8</f>
-        <v>-7.5119862610232797</v>
-      </c>
-      <c r="F8" s="10" t="s">
+        <v>-0.63667989652968715</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="3">
-        <f>Haupt!AF9-Haupt!H9</f>
-        <v>-27.31766666666681</v>
+        <v>2.3144484641040606</v>
       </c>
       <c r="B9" s="3">
-        <f>Haupt!AG9-Haupt!AM9</f>
-        <v>-8.0334943176112574</v>
+        <v>-0.67158136430968796</v>
       </c>
       <c r="D9">
-        <f>Haupt!AF9-Haupt!Q9</f>
-        <v>-0.98433333333377959</v>
+        <v>8.3396169932768771E-2</v>
       </c>
       <c r="E9">
-        <f>Haupt!AG9-Haupt!AJ9</f>
-        <v>-4.5318714435868515</v>
-      </c>
-      <c r="F9" s="10" t="s">
+        <v>-1.3514825714914735</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="3">
-        <f>Haupt!AF10-Haupt!H10</f>
-        <v>-27.868000000000393</v>
+        <v>2.3610746329354129</v>
       </c>
       <c r="B10" s="3">
-        <f>Haupt!AG10-Haupt!AM10</f>
-        <v>-11.423538297040523</v>
+        <v>-0.95496132000468492</v>
       </c>
       <c r="D10">
-        <f>Haupt!AF10-Haupt!Q10</f>
-        <v>-3.2013333333338778</v>
+        <v>0.27122818016738393</v>
       </c>
       <c r="E10">
-        <f>Haupt!AG10-Haupt!AJ10</f>
-        <v>-7.2658999931020389</v>
-      </c>
-      <c r="F10" s="10" t="s">
+        <v>-1.5831982990567042</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="3">
-        <f>Haupt!AF11-Haupt!H11</f>
-        <v>-28.868000000000393</v>
+        <v>2.4457981377773876</v>
       </c>
       <c r="B11" s="3">
-        <f>Haupt!AG11-Haupt!AM11</f>
-        <v>-18.355262372425386</v>
+        <v>-1.5342365235150766</v>
       </c>
       <c r="D11">
-        <f>Haupt!AF11-Haupt!Q11</f>
-        <v>-3.2013333333338778</v>
+        <v>0.27122818016738393</v>
       </c>
       <c r="E11">
-        <f>Haupt!AG11-Haupt!AJ11</f>
-        <v>-13.191233326435395</v>
-      </c>
-      <c r="F11" s="10" t="s">
+        <v>0.1257312759419591</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="3">
-        <f>Haupt!AF12-Haupt!H12</f>
-        <v>-29.434000000000196</v>
+        <v>2.4937516415179175</v>
       </c>
       <c r="B12" s="3">
-        <f>Haupt!AG12-Haupt!AM12</f>
-        <v>-12.252492316986263</v>
+        <v>-1.0240790432661981</v>
       </c>
       <c r="D12">
-        <f>Haupt!AF12-Haupt!Q12</f>
-        <v>-1.767333333333454</v>
+        <v>0.14973467422399267</v>
       </c>
       <c r="E12">
-        <f>Haupt!AG12-Haupt!AJ12</f>
-        <v>-10.742348453559543</v>
-      </c>
-      <c r="F12" s="10" t="s">
+        <v>0.33336816686998816</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="3">
-        <f>Haupt!AF13-Haupt!H13</f>
-        <v>-29.100666666666939</v>
+        <v>2.4655104732372592</v>
       </c>
       <c r="B13" s="3">
-        <f>Haupt!AG13-Haupt!AM13</f>
-        <v>-13.250362069635685</v>
+        <v>-1.10746977140289</v>
       </c>
       <c r="D13">
-        <f>Haupt!AF13-Haupt!Q13</f>
-        <v>-1.1006666666669389</v>
+        <v>9.3252337662704576E-2</v>
       </c>
       <c r="E13">
-        <f>Haupt!AG13-Haupt!AJ13</f>
-        <v>-11.404754625525356</v>
-      </c>
-      <c r="F13" s="10" t="s">
+        <v>0.27724673023681135</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="3">
-        <f>Haupt!AF14-Haupt!H14</f>
-        <v>-29.612333333333254</v>
+        <v>2.5088606665480455</v>
       </c>
       <c r="B14" s="3">
-        <f>Haupt!AG14-Haupt!AM14</f>
-        <v>-12.025160374756751</v>
+        <v>-1.0050252039019512</v>
       </c>
       <c r="D14">
-        <f>Haupt!AF14-Haupt!Q14</f>
-        <v>-0.6123333333332539</v>
+        <v>5.1879026131544492E-2</v>
       </c>
       <c r="E14">
-        <f>Haupt!AG14-Haupt!AJ14</f>
-        <v>-10.173162188594688</v>
-      </c>
-      <c r="F14" s="10" t="s">
+        <v>0.38164826801435936</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="3">
-        <f>Haupt!AF15-Haupt!H15</f>
-        <v>-28.612333333333254</v>
+        <v>2.4241371617060992</v>
       </c>
       <c r="B15" s="3">
-        <f>Haupt!AG15-Haupt!AM15</f>
-        <v>-12.009436299371828</v>
+        <v>-1.0037112579336167</v>
       </c>
       <c r="D15">
-        <f>Haupt!AF15-Haupt!Q15</f>
-        <v>-0.94566666666673882</v>
+        <v>8.0120194412216961E-2</v>
       </c>
       <c r="E15">
-        <f>Haupt!AG15-Haupt!AJ15</f>
-        <v>-9.832625769278593</v>
-      </c>
-      <c r="F15" s="10" t="s">
+        <v>0.68686781183725998</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="3">
-        <f>Haupt!AF16-Haupt!H16</f>
-        <v>-27.550333333333469</v>
+        <v>2.3341607995639606</v>
       </c>
       <c r="B16" s="3">
-        <f>Haupt!AG16-Haupt!AM16</f>
-        <v>-11.511260681488238</v>
+        <v>-0.96205706733501017</v>
       </c>
       <c r="D16">
-        <f>Haupt!AF16-Haupt!Q16</f>
-        <v>-0.55033333333346945</v>
+        <v>4.6626168831352288E-2</v>
       </c>
       <c r="E16">
-        <f>Haupt!AG16-Haupt!AJ16</f>
-        <v>-9.338710646095933</v>
-      </c>
-      <c r="F16" s="10" t="s">
+        <v>0.72873669692670262</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="3">
-        <f>Haupt!AF17-Haupt!H17</f>
-        <v>-28.217000000000098</v>
+        <v>2.3906431361252629</v>
       </c>
       <c r="B17" s="3">
-        <f>Haupt!AG17-Haupt!AM17</f>
-        <v>-10.858187842855841</v>
+        <v>-0.90748054384455656</v>
       </c>
       <c r="D17">
-        <f>Haupt!AF17-Haupt!Q17</f>
-        <v>-0.55033333333346945</v>
+        <v>4.6626168831352288E-2</v>
       </c>
       <c r="E17">
-        <f>Haupt!AG17-Haupt!AJ17</f>
-        <v>-8.0147106460958639</v>
-      </c>
-      <c r="F17" s="10" t="s">
+        <v>0.56454254454301633</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="3">
-        <f>Haupt!AF18-Haupt!H18</f>
-        <v>-27.488333333333344</v>
+        <v>2.3289079422637613</v>
       </c>
       <c r="B18" s="3">
-        <f>Haupt!AG18-Haupt!AM18</f>
-        <v>-10.695475805656088</v>
+        <v>-0.89386058318559947</v>
       </c>
       <c r="D18">
-        <f>Haupt!AF18-Haupt!Q18</f>
-        <v>-0.15499999999997272</v>
+        <v>1.3132143250501827E-2</v>
       </c>
       <c r="E18">
-        <f>Haupt!AG18-Haupt!AJ18</f>
-        <v>-7.8541288562469163</v>
-      </c>
-      <c r="F18" s="10" t="s">
+        <v>0.57817026135182914</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="3">
-        <f>Haupt!AF19-Haupt!H19</f>
-        <v>-27.154999999999973</v>
+        <v>2.3006667739831101</v>
       </c>
       <c r="B19" s="3">
-        <f>Haupt!AG19-Haupt!AM19</f>
-        <v>-11.017345558305578</v>
+        <v>-0.92075885757758158</v>
       </c>
       <c r="D19">
-        <f>Haupt!AF19-Haupt!Q19</f>
-        <v>0.17833333333339851</v>
+        <v>-1.5109025030149326E-2</v>
       </c>
       <c r="E19">
-        <f>Haupt!AG19-Haupt!AJ19</f>
-        <v>-8.1759986088964069</v>
-      </c>
-      <c r="F19" s="10" t="s">
+        <v>0.82726836854152452</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="3">
-        <f>Haupt!AF20-Haupt!H20</f>
-        <v>-25.759666666666703</v>
+        <v>2.1824492435603098</v>
       </c>
       <c r="B20" s="3">
-        <f>Haupt!AG20-Haupt!AM20</f>
-        <v>-10.183706359738153</v>
+        <v>-0.85107043703928298</v>
       </c>
       <c r="D20">
-        <f>Haupt!AF20-Haupt!Q20</f>
-        <v>0.24033333333329665</v>
+        <v>-2.0361882330345082E-2</v>
       </c>
       <c r="E20">
-        <f>Haupt!AG20-Haupt!AJ20</f>
-        <v>-7.6842137330643254</v>
-      </c>
-      <c r="F20" s="10" t="s">
+        <v>0.86895680366691863</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="3">
-        <f>Haupt!AF21-Haupt!H21</f>
-        <v>-25.426333333333332</v>
+        <v>2.1542080752796586</v>
       </c>
       <c r="B21" s="3">
-        <f>Haupt!AG21-Haupt!AM21</f>
-        <v>-9.1909094457209903</v>
+        <v>-0.76810370276795936</v>
       </c>
       <c r="D21">
-        <f>Haupt!AF21-Haupt!Q21</f>
-        <v>0.24033333333329665</v>
+        <v>-2.0361882330345082E-2</v>
       </c>
       <c r="E21">
-        <f>Haupt!AG21-Haupt!AJ21</f>
-        <v>-6.6935470663975138</v>
-      </c>
-      <c r="F21" s="10" t="s">
+        <v>0.6765214830025883</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="3">
-        <f>Haupt!AF22-Haupt!H22</f>
-        <v>-25</v>
+        <v>2.1180876210487076</v>
       </c>
       <c r="B22" s="3">
-        <f>Haupt!AG22-Haupt!AM22</f>
-        <v>-9.1177685512891458</v>
+        <v>-0.76195786238027097</v>
       </c>
       <c r="D22">
-        <f>Haupt!AF22-Haupt!Q22</f>
-        <v>0.66666666666666663</v>
+        <v>-5.6482336561298863E-2</v>
       </c>
       <c r="E22">
-        <f>Haupt!AG22-Haupt!AJ22</f>
-        <v>-6.6204061719658966</v>
-      </c>
-      <c r="F22" s="10" t="s">
+        <v>0.68275224909345411</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1">
       <c r="A23" s="3">
-        <f>Haupt!AF23-Haupt!H23</f>
-        <v>-25</v>
+        <v>2.1180876210487076</v>
       </c>
       <c r="B23" s="3">
-        <f>Haupt!AG23-Haupt!AM23</f>
-        <v>-7.5402685512890457</v>
+        <v>-0.63012820885617771</v>
       </c>
       <c r="D23">
-        <f>Haupt!AF23-Haupt!Q23</f>
-        <v>1</v>
+        <v>-8.4723504841948294E-2</v>
       </c>
       <c r="E23">
-        <f>Haupt!AG23-Haupt!AJ23</f>
-        <v>-6.0407759246152182</v>
-      </c>
-      <c r="F23" s="10" t="s">
+        <v>0.55913047760722634</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1">
       <c r="A24" s="3">
-        <f>Haupt!AF24-Haupt!H24</f>
-        <v>-27.899166666666702</v>
+        <v>2.3637151821696563</v>
       </c>
       <c r="B24" s="3">
-        <f>Haupt!AG24-Haupt!AM24</f>
-        <v>-8.2441704811299132</v>
+        <v>-0.68903609112379627</v>
       </c>
       <c r="D24">
-        <f>Haupt!AF24-Haupt!Q24</f>
-        <v>1.1008333333332985</v>
+        <v>-9.3266458246844763E-2</v>
       </c>
       <c r="E24">
-        <f>Haupt!AG24-Haupt!AJ24</f>
-        <v>-4.7255056283014483</v>
-      </c>
-      <c r="F24" s="10" t="s">
+        <v>0.39411156901092426</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1">
       <c r="A25" s="3">
-        <f>Haupt!AF25-Haupt!H25</f>
-        <v>-25.240333333333297</v>
+        <v>2.13844950337905</v>
       </c>
       <c r="B25" s="3">
-        <f>Haupt!AG25-Haupt!AM25</f>
-        <v>-0.24588815155817656</v>
+        <v>-2.0512573374123377E-2</v>
       </c>
       <c r="D25">
-        <f>Haupt!AF25-Haupt!Q25</f>
-        <v>1.4263333333333321</v>
+        <v>-0.12084395907290002</v>
       </c>
       <c r="E25">
-        <f>Haupt!AG25-Haupt!AJ25</f>
-        <v>4.257864969816751</v>
-      </c>
-      <c r="F25" s="10" t="s">
+        <v>0.70623525137404641</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1">
       <c r="A26" s="3">
-        <f>Haupt!AF26-Haupt!H26</f>
-        <v>-27.333333333333332</v>
+        <v>2.3157757990132533</v>
       </c>
       <c r="B26" s="3">
-        <f>Haupt!AG26-Haupt!AM26</f>
-        <v>-0.4188469494092999</v>
+        <v>-3.4999909936109574E-2</v>
       </c>
       <c r="D26">
-        <f>Haupt!AF26-Haupt!Q26</f>
-        <v>0.33333333333333331</v>
+        <v>-2.8241168280649431E-2</v>
       </c>
       <c r="E26">
-        <f>Haupt!AG26-Haupt!AJ26</f>
-        <v>4.091296914017164</v>
-      </c>
-      <c r="F26" s="10" t="s">
+        <v>0.51935902734345163</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1">
       <c r="A27" s="3">
-        <f>Haupt!AF27-Haupt!H27</f>
-        <v>-27.666666666666668</v>
+        <v>2.3440169672939031</v>
       </c>
       <c r="B27" s="3">
-        <f>Haupt!AG27-Haupt!AM27</f>
-        <v>0.48985613657352883</v>
+        <v>4.0939274129213096E-2</v>
       </c>
       <c r="D27">
-        <f>Haupt!AF27-Haupt!Q27</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>Haupt!AG27-Haupt!AJ27</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F27" s="10" t="s">
+        <v>0.36713518764844261</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFF0000 VERTRAULICH</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCCE8C9-4672-B84F-A14C-4717865B6D24}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.60815943833966912</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-1.8930543252383139</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7.1577241007304296E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-2.533747834177376</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.60815943833966912</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-0.8569720869841575</v>
+      </c>
+      <c r="K4">
+        <v>7.1577241007304337E-2</v>
+      </c>
+      <c r="L4">
+        <v>-1.1003802851361115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.11296467312259773</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.3568718557269633E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.11296467312259773</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8.2856756874909801E-2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.091549395215381</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-0.50414222281648335</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-9.8561677299500161E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-0.72699213896920867</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.091549395215381</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-6.9845596576982416E-2</v>
+      </c>
+      <c r="K6">
+        <v>-9.8561677299500161E-3</v>
+      </c>
+      <c r="L6">
+        <v>-1.2569908036500976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.1830987904307619</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1.3370994969163141</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9.3252337662704576E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1.3649557364354039</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.1830987904307619</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-0.46850624443731059</v>
+      </c>
+      <c r="K7">
+        <v>9.3252337662704576E-2</v>
+      </c>
+      <c r="L7">
+        <v>-0.48986812377046496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.2579661275427725</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-2.1449304429699207</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.25284317961668989</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-1.9499367663362914</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2.2579661275427725</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-0.83563290911017685</v>
+      </c>
+      <c r="K8">
+        <v>0.25284317961668989</v>
+      </c>
+      <c r="L8">
+        <v>-0.63667989652968715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.3144484641040606</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1.9805229173282584</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8.3396169932768771E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1.7019605221373553</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2.3144484641040606</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-0.67158136430968796</v>
+      </c>
+      <c r="K9">
+        <v>8.3396169932768771E-2</v>
+      </c>
+      <c r="L9">
+        <v>-1.3514825714914735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.3610746329354129</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-2.7047851448245837</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.27122818016738393</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-2.3705102705955028</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.3610746329354129</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-0.95496132000468492</v>
+      </c>
+      <c r="K10">
+        <v>0.27122818016738393</v>
+      </c>
+      <c r="L10">
+        <v>-1.5831982990567042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2.4457981377773876</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-3.2835263770732013</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.27122818016738393</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-2.8656827842868466</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.4457981377773876</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-1.5342365235150766</v>
+      </c>
+      <c r="K11">
+        <v>0.27122818016738393</v>
+      </c>
+      <c r="L11">
+        <v>0.1257312759419591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2.4937516415179175</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-1.8907144011187142</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.14973467422399267</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-1.7792894430423445</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.4937516415179175</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-1.0240790432661981</v>
+      </c>
+      <c r="K12">
+        <v>0.14973467422399267</v>
+      </c>
+      <c r="L12">
+        <v>0.33336816686998816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.4655104732372592</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-1.974283119675988</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9.3252337662704576E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-1.8350019220805365</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2.4655104732372592</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-1.10746977140289</v>
+      </c>
+      <c r="K13">
+        <v>9.3252337662704576E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.27724673023681135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.5088606665480455</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-1.5564395268896334</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5.1879026131544492E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-1.4171583292941818</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.5088606665480455</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-1.0050252039019512</v>
+      </c>
+      <c r="K14">
+        <v>5.1879026131544492E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.38164826801435936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2.4241371617060992</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-1.5556595521830872</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8.0120194412216961E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-1.3885221150685538</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2.4241371617060992</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-1.0037112579336167</v>
+      </c>
+      <c r="K15">
+        <v>8.0120194412216961E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.68686781183725998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.3341607995639606</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-1.3885221150685538</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.6626168831352288E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-1.2213846779540205</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2.3341607995639606</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-0.96205706733501017</v>
+      </c>
+      <c r="K16">
+        <v>4.6626168831352288E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.72873669692670262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.3906431361252629</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-1.3335896107369081</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.6626168831352288E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-1.1107396945841828</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2.3906431361252629</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-0.90748054384455656</v>
+      </c>
+      <c r="K17">
+        <v>4.6626168831352288E-2</v>
+      </c>
+      <c r="L17">
+        <v>0.56454254454301633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.3289079422637613</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-1.1943084131414565</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.3132143250501827E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-0.97145849698874542</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2.3289079422637613</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-0.89386058318559947</v>
+      </c>
+      <c r="K18">
+        <v>1.3132143250501827E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.57817026135182914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2.3006667739831101</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-1.2213846779540205</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-1.5109025030149326E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-0.9985347618013094</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2.3006667739831101</v>
+      </c>
+      <c r="I19" s="3">
+        <v>-0.92075885757758158</v>
+      </c>
+      <c r="K19">
+        <v>-1.5109025030149326E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.82726836854152452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2.1824492435603098</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-1.0263910013203912</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2.0361882330345082E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-0.83139732468676186</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2.1824492435603098</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-0.85107043703928298</v>
+      </c>
+      <c r="K20">
+        <v>-2.0361882330345082E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.86895680366691863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2.1542080752796586</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-0.94360225746964943</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2.0361882330345082E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-0.74860858083602011</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2.1542080752796586</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-0.76810370276795936</v>
+      </c>
+      <c r="K21">
+        <v>-2.0361882330345082E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.6765214830025883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2.1180876210487076</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-0.74860858083602011</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-5.6482336561298863E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-0.553614904202405</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2.1180876210487076</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-0.76195786238027097</v>
+      </c>
+      <c r="K22">
+        <v>-5.6482336561298863E-2</v>
+      </c>
+      <c r="L22">
+        <v>0.68275224909345411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2.1180876210487076</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-0.61677892731192685</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8.4723504841948294E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-0.5053539692355713</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2.1180876210487076</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-0.63012820885617771</v>
+      </c>
+      <c r="K23">
+        <v>-8.4723504841948294E-2</v>
+      </c>
+      <c r="L23">
+        <v>0.55913047760722634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2.3637151821696563</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-1.1468274528811691</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-9.3266458246844763E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-0.86826505769028017</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2.3637151821696563</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-0.68903609112379627</v>
+      </c>
+      <c r="K24">
+        <v>-9.3266458246844763E-2</v>
+      </c>
+      <c r="L24">
+        <v>0.39411156901092426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2.13844950337905</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.1820405252572499</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-0.12084395907290002</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.54417163900541965</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.13844950337905</v>
+      </c>
+      <c r="I25" s="3">
+        <v>-2.0512573374123377E-2</v>
+      </c>
+      <c r="K25">
+        <v>-0.12084395907290002</v>
+      </c>
+      <c r="L25">
+        <v>0.70623525137404641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2.3157757990132533</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-2.0404695447732379E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2.8241168280649431E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.34172641830043382</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2.3157757990132533</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-3.4999909936109574E-2</v>
+      </c>
+      <c r="K26">
+        <v>-2.8241168280649431E-2</v>
+      </c>
+      <c r="L26">
+        <v>0.51935902734345163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2.3440169672939031</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5.5712479038179753E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.36213111374816842</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2.3440169672939031</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4.0939274129213096E-2</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0.36713518764844261</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFF0000 VERTRAULICH</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>